--- a/Introducción a los Sistemas Operativos/Guías de Estudio/IaSO-Guia-de-Trabajos-Practicos Ejericico 3.xlsx
+++ b/Introducción a los Sistemas Operativos/Guías de Estudio/IaSO-Guia-de-Trabajos-Practicos Ejericico 3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="37">
   <si>
     <t>Proceso</t>
   </si>
@@ -112,9 +112,6 @@
     <t>E/S se realiza en paralelo</t>
   </si>
   <si>
-    <t xml:space="preserve">Prioridades  (No Apropiativo). </t>
-  </si>
-  <si>
     <t>SPN</t>
   </si>
   <si>
@@ -123,12 +120,24 @@
   <si>
     <t>&gt;</t>
   </si>
+  <si>
+    <t>RR (q=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prioridades (No Apropiativo). </t>
+  </si>
+  <si>
+    <t>Prioridades (Apropiativo)</t>
+  </si>
+  <si>
+    <t>SRT (Apropiativo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +205,51 @@
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -268,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -326,10 +380,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,25 +389,74 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BB91"/>
+  <dimension ref="A2:BB189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L184" sqref="L184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,39 +751,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="34" t="s">
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="37" t="s">
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="AF2" s="2"/>
@@ -697,39 +796,39 @@
       <c r="AM2" s="1"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36" t="s">
+      <c r="I3" s="58"/>
+      <c r="J3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36" t="s">
+      <c r="K3" s="58"/>
+      <c r="L3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36" t="s">
+      <c r="M3" s="58"/>
+      <c r="N3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36" t="s">
+      <c r="O3" s="58"/>
+      <c r="P3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="AF3" s="1"/>
@@ -742,48 +841,48 @@
       <c r="AM3" s="1"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="31">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="50">
         <v>5</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31">
+      <c r="I4" s="50"/>
+      <c r="J4" s="50">
         <v>1</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31">
+      <c r="K4" s="50"/>
+      <c r="L4" s="50">
         <v>3</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31">
+      <c r="M4" s="50"/>
+      <c r="N4" s="50">
         <v>1</v>
       </c>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31">
+      <c r="O4" s="50"/>
+      <c r="P4" s="50">
         <v>4</v>
       </c>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31" t="s">
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="33">
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="51">
         <f>SUM(H4,L4,P4)</f>
         <v>12</v>
       </c>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="AF4" s="1"/>
@@ -796,48 +895,48 @@
       <c r="AM4" s="1"/>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="31">
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="50">
         <v>2</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31">
+      <c r="I5" s="50"/>
+      <c r="J5" s="50">
         <v>3</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31">
+      <c r="K5" s="50"/>
+      <c r="L5" s="50">
         <v>3</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31">
+      <c r="M5" s="50"/>
+      <c r="N5" s="50">
         <v>2</v>
       </c>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31">
+      <c r="O5" s="50"/>
+      <c r="P5" s="50">
         <v>2</v>
       </c>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="33">
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="51">
         <f t="shared" ref="U5:U8" si="0">SUM(H5,L5,P5)</f>
         <v>7</v>
       </c>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="AF5" s="1"/>
@@ -850,48 +949,48 @@
       <c r="AM5" s="1"/>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31">
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="50">
         <v>4</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31">
+      <c r="I6" s="50"/>
+      <c r="J6" s="50">
         <v>2</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31">
+      <c r="K6" s="50"/>
+      <c r="L6" s="50">
         <v>4</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31">
+      <c r="M6" s="50"/>
+      <c r="N6" s="50">
         <v>3</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31">
+      <c r="O6" s="50"/>
+      <c r="P6" s="50">
         <v>1</v>
       </c>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31" t="s">
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="33">
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="51">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="AF6" s="1"/>
@@ -904,48 +1003,48 @@
       <c r="AM6" s="1"/>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="31">
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="50">
         <v>2</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31">
+      <c r="I7" s="50"/>
+      <c r="J7" s="50">
         <v>1</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31">
+      <c r="K7" s="50"/>
+      <c r="L7" s="50">
         <v>1</v>
       </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31">
+      <c r="M7" s="50"/>
+      <c r="N7" s="50">
         <v>2</v>
       </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31">
+      <c r="O7" s="50"/>
+      <c r="P7" s="50">
         <v>3</v>
       </c>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="33">
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="51">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="AF7" s="1"/>
@@ -958,48 +1057,48 @@
       <c r="AM7" s="1"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="31">
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="50">
         <v>3</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31">
+      <c r="I8" s="50"/>
+      <c r="J8" s="50">
         <v>2</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31">
+      <c r="K8" s="50"/>
+      <c r="L8" s="50">
         <v>4</v>
       </c>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31">
+      <c r="M8" s="50"/>
+      <c r="N8" s="50">
         <v>5</v>
       </c>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31">
+      <c r="O8" s="50"/>
+      <c r="P8" s="50">
         <v>4</v>
       </c>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31" t="s">
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="33">
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="51">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="AF8" s="1"/>
@@ -1012,32 +1111,32 @@
       <c r="AM8" s="1"/>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="33">
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="51">
         <f>SUM(H9,L9)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="AF9" s="1"/>
@@ -1050,32 +1149,32 @@
       <c r="AM9" s="1"/>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="33">
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="51">
         <f>SUM(H10,L10)</f>
         <v>0</v>
       </c>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="AF10" s="1"/>
@@ -1132,16 +1231,16 @@
       <c r="A12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1177,16 +1276,16 @@
       <c r="A13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1224,44 +1323,44 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="30"/>
-      <c r="AM14" s="30"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="60"/>
+      <c r="AH14" s="60"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="60"/>
+      <c r="AK14" s="60"/>
+      <c r="AL14" s="60"/>
+      <c r="AM14" s="60"/>
     </row>
     <row r="15" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
@@ -2500,39 +2599,37 @@
       <c r="AM34" s="1"/>
     </row>
     <row r="35" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="38" t="s">
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="36" t="s">
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="34" t="s">
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
@@ -2551,39 +2648,39 @@
       <c r="AM35" s="1"/>
     </row>
     <row r="36" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="36" t="s">
+      <c r="A36" s="56"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36" t="s">
+      <c r="I36" s="58"/>
+      <c r="J36" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36" t="s">
+      <c r="K36" s="58"/>
+      <c r="L36" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36" t="s">
+      <c r="M36" s="58"/>
+      <c r="N36" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36" t="s">
+      <c r="O36" s="58"/>
+      <c r="P36" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
@@ -2602,48 +2699,45 @@
       <c r="AM36" s="1"/>
     </row>
     <row r="37" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="33" t="s">
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="31">
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="50">
         <v>5</v>
       </c>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31">
+      <c r="I37" s="50"/>
+      <c r="J37" s="50">
         <v>1</v>
       </c>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31">
+      <c r="K37" s="50"/>
+      <c r="L37" s="50">
         <v>3</v>
       </c>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31">
+      <c r="M37" s="50"/>
+      <c r="N37" s="50">
         <v>1</v>
       </c>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31">
+      <c r="O37" s="50"/>
+      <c r="P37" s="50">
         <v>4</v>
       </c>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31" t="s">
+      <c r="Q37" s="50"/>
+      <c r="R37" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="33">
-        <f>SUM(H37,L37,P37)</f>
-        <v>12</v>
-      </c>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
@@ -2662,48 +2756,45 @@
       <c r="AM37" s="1"/>
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="33" t="s">
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="31">
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="50">
         <v>2</v>
       </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31">
+      <c r="I38" s="50"/>
+      <c r="J38" s="50">
         <v>3</v>
       </c>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31">
+      <c r="K38" s="50"/>
+      <c r="L38" s="50">
         <v>3</v>
       </c>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31">
+      <c r="M38" s="50"/>
+      <c r="N38" s="50">
         <v>2</v>
       </c>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31">
+      <c r="O38" s="50"/>
+      <c r="P38" s="50">
         <v>2</v>
       </c>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="33">
-        <f t="shared" ref="U38:U41" si="1">SUM(H38,L38,P38)</f>
-        <v>7</v>
-      </c>
-      <c r="V38" s="33"/>
-      <c r="W38" s="33"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
@@ -2722,48 +2813,45 @@
       <c r="AM38" s="1"/>
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="33" t="s">
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="31">
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="50">
         <v>4</v>
       </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31">
+      <c r="I39" s="50"/>
+      <c r="J39" s="50">
         <v>2</v>
       </c>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31">
+      <c r="K39" s="50"/>
+      <c r="L39" s="50">
         <v>4</v>
       </c>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31">
+      <c r="M39" s="50"/>
+      <c r="N39" s="50">
         <v>3</v>
       </c>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31">
+      <c r="O39" s="50"/>
+      <c r="P39" s="50">
         <v>1</v>
       </c>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31" t="s">
+      <c r="Q39" s="50"/>
+      <c r="R39" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="33">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
@@ -2782,48 +2870,45 @@
       <c r="AM39" s="1"/>
     </row>
     <row r="40" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="33" t="s">
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="31">
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="50">
         <v>2</v>
       </c>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31">
+      <c r="I40" s="50"/>
+      <c r="J40" s="50">
         <v>1</v>
       </c>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31">
+      <c r="K40" s="50"/>
+      <c r="L40" s="50">
         <v>1</v>
       </c>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31">
+      <c r="M40" s="50"/>
+      <c r="N40" s="50">
         <v>2</v>
       </c>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31">
+      <c r="O40" s="50"/>
+      <c r="P40" s="50">
         <v>3</v>
       </c>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="33">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="V40" s="33"/>
-      <c r="W40" s="33"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
@@ -2842,48 +2927,45 @@
       <c r="AM40" s="1"/>
     </row>
     <row r="41" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="33" t="s">
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="31">
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="50">
         <v>3</v>
       </c>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31">
+      <c r="I41" s="50"/>
+      <c r="J41" s="50">
         <v>2</v>
       </c>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31">
+      <c r="K41" s="50"/>
+      <c r="L41" s="50">
         <v>4</v>
       </c>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31">
+      <c r="M41" s="50"/>
+      <c r="N41" s="50">
         <v>5</v>
       </c>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31">
+      <c r="O41" s="50"/>
+      <c r="P41" s="50">
         <v>4</v>
       </c>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31" t="s">
+      <c r="Q41" s="50"/>
+      <c r="R41" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="33">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="V41" s="33"/>
-      <c r="W41" s="33"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
@@ -2902,32 +2984,29 @@
       <c r="AM41" s="1"/>
     </row>
     <row r="42" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="33">
-        <f>SUM(H42,L42)</f>
-        <v>0</v>
-      </c>
-      <c r="V42" s="33"/>
-      <c r="W42" s="33"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
@@ -2946,32 +3025,29 @@
       <c r="AM42" s="1"/>
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="33">
-        <f>SUM(H43,L43)</f>
-        <v>0</v>
-      </c>
-      <c r="V43" s="33"/>
-      <c r="W43" s="33"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="52"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
@@ -3034,16 +3110,16 @@
       <c r="A45" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -3079,16 +3155,16 @@
       <c r="A46" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -3126,44 +3202,44 @@
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="39"/>
-      <c r="Y47" s="39"/>
-      <c r="Z47" s="39"/>
-      <c r="AA47" s="39"/>
-      <c r="AB47" s="39"/>
-      <c r="AC47" s="39"/>
-      <c r="AD47" s="39"/>
-      <c r="AE47" s="39"/>
-      <c r="AF47" s="39"/>
-      <c r="AG47" s="39"/>
-      <c r="AH47" s="39"/>
-      <c r="AI47" s="39"/>
-      <c r="AJ47" s="39"/>
-      <c r="AK47" s="39"/>
-      <c r="AL47" s="39"/>
-      <c r="AM47" s="39"/>
+      <c r="D47" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="55"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="55"/>
+      <c r="X47" s="55"/>
+      <c r="Y47" s="55"/>
+      <c r="Z47" s="55"/>
+      <c r="AA47" s="55"/>
+      <c r="AB47" s="55"/>
+      <c r="AC47" s="55"/>
+      <c r="AD47" s="55"/>
+      <c r="AE47" s="55"/>
+      <c r="AF47" s="55"/>
+      <c r="AG47" s="55"/>
+      <c r="AH47" s="55"/>
+      <c r="AI47" s="55"/>
+      <c r="AJ47" s="55"/>
+      <c r="AK47" s="55"/>
+      <c r="AL47" s="55"/>
+      <c r="AM47" s="55"/>
     </row>
     <row r="48" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
@@ -4165,40 +4241,40 @@
       <c r="AL62" s="1"/>
       <c r="AM62" s="1"/>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A68" s="34" t="s">
+    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A68" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="35" t="s">
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="36" t="s">
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="34" t="s">
+      <c r="I68" s="58"/>
+      <c r="J68" s="58"/>
+      <c r="K68" s="58"/>
+      <c r="L68" s="58"/>
+      <c r="M68" s="58"/>
+      <c r="N68" s="58"/>
+      <c r="O68" s="58"/>
+      <c r="P68" s="58"/>
+      <c r="Q68" s="58"/>
+      <c r="R68" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="S68" s="34"/>
-      <c r="T68" s="34"/>
-      <c r="U68" s="37" t="s">
+      <c r="S68" s="56"/>
+      <c r="T68" s="56"/>
+      <c r="U68" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="V68" s="37"/>
-      <c r="W68" s="37"/>
+      <c r="V68" s="59"/>
+      <c r="W68" s="59"/>
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
       <c r="AF68" s="2"/>
@@ -4210,40 +4286,40 @@
       <c r="AL68" s="2"/>
       <c r="AM68" s="1"/>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="36" t="s">
+    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A69" s="56"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36" t="s">
+      <c r="I69" s="58"/>
+      <c r="J69" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36" t="s">
+      <c r="K69" s="58"/>
+      <c r="L69" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36" t="s">
+      <c r="M69" s="58"/>
+      <c r="N69" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36" t="s">
+      <c r="O69" s="58"/>
+      <c r="P69" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="34"/>
-      <c r="S69" s="34"/>
-      <c r="T69" s="34"/>
-      <c r="U69" s="37"/>
-      <c r="V69" s="37"/>
-      <c r="W69" s="37"/>
+      <c r="Q69" s="58"/>
+      <c r="R69" s="56"/>
+      <c r="S69" s="56"/>
+      <c r="T69" s="56"/>
+      <c r="U69" s="59"/>
+      <c r="V69" s="59"/>
+      <c r="W69" s="59"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="AF69" s="1"/>
@@ -4255,49 +4331,49 @@
       <c r="AL69" s="1"/>
       <c r="AM69" s="1"/>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
+    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A70" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="32" t="s">
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="31">
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="53">
         <v>5</v>
       </c>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31">
+      <c r="I70" s="53"/>
+      <c r="J70" s="53">
         <v>1</v>
       </c>
-      <c r="K70" s="31"/>
-      <c r="L70" s="31">
+      <c r="K70" s="53"/>
+      <c r="L70" s="53">
         <v>3</v>
       </c>
-      <c r="M70" s="31"/>
-      <c r="N70" s="31">
+      <c r="M70" s="53"/>
+      <c r="N70" s="53">
         <v>1</v>
       </c>
-      <c r="O70" s="31"/>
-      <c r="P70" s="31">
+      <c r="O70" s="53"/>
+      <c r="P70" s="53">
         <v>4</v>
       </c>
-      <c r="Q70" s="31"/>
-      <c r="R70" s="31" t="s">
+      <c r="Q70" s="53"/>
+      <c r="R70" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="S70" s="31"/>
-      <c r="T70" s="31"/>
-      <c r="U70" s="33">
+      <c r="S70" s="50"/>
+      <c r="T70" s="50"/>
+      <c r="U70" s="52">
         <f>SUM(H70,L70,P70)</f>
         <v>12</v>
       </c>
-      <c r="V70" s="33"/>
-      <c r="W70" s="33"/>
+      <c r="V70" s="52"/>
+      <c r="W70" s="52"/>
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
       <c r="AF70" s="1"/>
@@ -4309,49 +4385,49 @@
       <c r="AL70" s="1"/>
       <c r="AM70" s="1"/>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
+    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A71" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="32" t="s">
+      <c r="B71" s="50"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="31">
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="53">
         <v>2</v>
       </c>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31">
+      <c r="I71" s="53"/>
+      <c r="J71" s="53">
         <v>3</v>
       </c>
-      <c r="K71" s="31"/>
-      <c r="L71" s="31">
+      <c r="K71" s="53"/>
+      <c r="L71" s="53">
         <v>3</v>
       </c>
-      <c r="M71" s="31"/>
-      <c r="N71" s="31">
+      <c r="M71" s="53"/>
+      <c r="N71" s="53">
         <v>2</v>
       </c>
-      <c r="O71" s="31"/>
-      <c r="P71" s="31">
+      <c r="O71" s="53"/>
+      <c r="P71" s="53">
         <v>2</v>
       </c>
-      <c r="Q71" s="31"/>
-      <c r="R71" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="S71" s="31"/>
-      <c r="T71" s="31"/>
-      <c r="U71" s="33">
-        <f t="shared" ref="U71:U74" si="2">SUM(H71,L71,P71)</f>
+      <c r="Q71" s="53"/>
+      <c r="R71" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="S71" s="50"/>
+      <c r="T71" s="50"/>
+      <c r="U71" s="52">
+        <f t="shared" ref="U71:U74" si="1">SUM(H71,L71,P71)</f>
         <v>7</v>
       </c>
-      <c r="V71" s="33"/>
-      <c r="W71" s="33"/>
+      <c r="V71" s="52"/>
+      <c r="W71" s="52"/>
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
       <c r="AF71" s="1"/>
@@ -4363,49 +4439,49 @@
       <c r="AL71" s="1"/>
       <c r="AM71" s="1"/>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
+    <row r="72" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A72" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="32" t="s">
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="31">
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="53">
         <v>4</v>
       </c>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31">
+      <c r="I72" s="53"/>
+      <c r="J72" s="53">
         <v>2</v>
       </c>
-      <c r="K72" s="31"/>
-      <c r="L72" s="31">
+      <c r="K72" s="53"/>
+      <c r="L72" s="53">
         <v>4</v>
       </c>
-      <c r="M72" s="31"/>
-      <c r="N72" s="31">
+      <c r="M72" s="53"/>
+      <c r="N72" s="53">
         <v>3</v>
       </c>
-      <c r="O72" s="31"/>
-      <c r="P72" s="31">
+      <c r="O72" s="53"/>
+      <c r="P72" s="53">
         <v>1</v>
       </c>
-      <c r="Q72" s="31"/>
-      <c r="R72" s="31" t="s">
+      <c r="Q72" s="53"/>
+      <c r="R72" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="S72" s="31"/>
-      <c r="T72" s="31"/>
-      <c r="U72" s="33">
-        <f t="shared" si="2"/>
+      <c r="S72" s="50"/>
+      <c r="T72" s="50"/>
+      <c r="U72" s="52">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="V72" s="33"/>
-      <c r="W72" s="33"/>
+      <c r="V72" s="52"/>
+      <c r="W72" s="52"/>
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
       <c r="AF72" s="1"/>
@@ -4417,49 +4493,49 @@
       <c r="AL72" s="1"/>
       <c r="AM72" s="1"/>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
+    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A73" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="32" t="s">
+      <c r="B73" s="50"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="31">
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="53">
         <v>2</v>
       </c>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31">
+      <c r="I73" s="53"/>
+      <c r="J73" s="53">
         <v>1</v>
       </c>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31">
+      <c r="K73" s="53"/>
+      <c r="L73" s="53">
         <v>1</v>
       </c>
-      <c r="M73" s="31"/>
-      <c r="N73" s="31">
+      <c r="M73" s="53"/>
+      <c r="N73" s="53">
         <v>2</v>
       </c>
-      <c r="O73" s="31"/>
-      <c r="P73" s="31">
+      <c r="O73" s="53"/>
+      <c r="P73" s="53">
         <v>3</v>
       </c>
-      <c r="Q73" s="31"/>
-      <c r="R73" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="S73" s="31"/>
-      <c r="T73" s="31"/>
-      <c r="U73" s="33">
-        <f t="shared" si="2"/>
+      <c r="Q73" s="53"/>
+      <c r="R73" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="S73" s="50"/>
+      <c r="T73" s="50"/>
+      <c r="U73" s="52">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="V73" s="33"/>
-      <c r="W73" s="33"/>
+      <c r="V73" s="52"/>
+      <c r="W73" s="52"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="AF73" s="1"/>
@@ -4471,49 +4547,49 @@
       <c r="AL73" s="1"/>
       <c r="AM73" s="1"/>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
+    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A74" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="32" t="s">
+      <c r="B74" s="50"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="31">
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="53">
         <v>3</v>
       </c>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31">
+      <c r="I74" s="53"/>
+      <c r="J74" s="53">
         <v>2</v>
       </c>
-      <c r="K74" s="31"/>
-      <c r="L74" s="31">
+      <c r="K74" s="53"/>
+      <c r="L74" s="53">
         <v>4</v>
       </c>
-      <c r="M74" s="31"/>
-      <c r="N74" s="31">
+      <c r="M74" s="53"/>
+      <c r="N74" s="53">
         <v>5</v>
       </c>
-      <c r="O74" s="31"/>
-      <c r="P74" s="31">
+      <c r="O74" s="53"/>
+      <c r="P74" s="53">
         <v>4</v>
       </c>
-      <c r="Q74" s="31"/>
-      <c r="R74" s="31" t="s">
+      <c r="Q74" s="53"/>
+      <c r="R74" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="S74" s="31"/>
-      <c r="T74" s="31"/>
-      <c r="U74" s="33">
-        <f t="shared" si="2"/>
+      <c r="S74" s="50"/>
+      <c r="T74" s="50"/>
+      <c r="U74" s="52">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="V74" s="33"/>
-      <c r="W74" s="33"/>
+      <c r="V74" s="52"/>
+      <c r="W74" s="52"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="AF74" s="1"/>
@@ -4525,33 +4601,33 @@
       <c r="AL74" s="1"/>
       <c r="AM74" s="1"/>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="31"/>
-      <c r="L75" s="31"/>
-      <c r="M75" s="31"/>
-      <c r="N75" s="31"/>
-      <c r="O75" s="31"/>
-      <c r="P75" s="31"/>
-      <c r="Q75" s="31"/>
-      <c r="R75" s="31"/>
-      <c r="S75" s="31"/>
-      <c r="T75" s="31"/>
-      <c r="U75" s="33">
+    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A75" s="50"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="50"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="50"/>
+      <c r="P75" s="50"/>
+      <c r="Q75" s="50"/>
+      <c r="R75" s="50"/>
+      <c r="S75" s="50"/>
+      <c r="T75" s="50"/>
+      <c r="U75" s="52">
         <f>SUM(H75,L75)</f>
         <v>0</v>
       </c>
-      <c r="V75" s="33"/>
-      <c r="W75" s="33"/>
+      <c r="V75" s="52"/>
+      <c r="W75" s="52"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="AF75" s="1"/>
@@ -4563,33 +4639,33 @@
       <c r="AL75" s="1"/>
       <c r="AM75" s="1"/>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="31"/>
-      <c r="M76" s="31"/>
-      <c r="N76" s="31"/>
-      <c r="O76" s="31"/>
-      <c r="P76" s="31"/>
-      <c r="Q76" s="31"/>
-      <c r="R76" s="31"/>
-      <c r="S76" s="31"/>
-      <c r="T76" s="31"/>
-      <c r="U76" s="33">
+    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A76" s="50"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="50"/>
+      <c r="M76" s="50"/>
+      <c r="N76" s="50"/>
+      <c r="O76" s="50"/>
+      <c r="P76" s="50"/>
+      <c r="Q76" s="50"/>
+      <c r="R76" s="50"/>
+      <c r="S76" s="50"/>
+      <c r="T76" s="50"/>
+      <c r="U76" s="52">
         <f>SUM(H76,L76)</f>
         <v>0</v>
       </c>
-      <c r="V76" s="33"/>
-      <c r="W76" s="33"/>
+      <c r="V76" s="52"/>
+      <c r="W76" s="52"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="AF76" s="1"/>
@@ -4601,16 +4677,20 @@
       <c r="AL76" s="1"/>
       <c r="AM76" s="1"/>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+    <row r="77" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -4642,20 +4722,20 @@
       <c r="AL77" s="1"/>
       <c r="AM77" s="1"/>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
+      <c r="B78" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -4687,303 +4767,360 @@
       <c r="AL78" s="1"/>
       <c r="AM78" s="1"/>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A79" s="23" t="s">
+    <row r="79" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" s="60"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="60"/>
+      <c r="K79" s="60"/>
+      <c r="L79" s="60"/>
+      <c r="M79" s="60"/>
+      <c r="N79" s="60"/>
+      <c r="O79" s="60"/>
+      <c r="P79" s="60"/>
+      <c r="Q79" s="60"/>
+      <c r="R79" s="60"/>
+      <c r="S79" s="60"/>
+      <c r="T79" s="60"/>
+      <c r="U79" s="60"/>
+      <c r="V79" s="60"/>
+      <c r="W79" s="60"/>
+      <c r="X79" s="60"/>
+      <c r="Y79" s="60"/>
+      <c r="Z79" s="60"/>
+      <c r="AA79" s="60"/>
+      <c r="AB79" s="60"/>
+      <c r="AC79" s="60"/>
+      <c r="AD79" s="60"/>
+      <c r="AE79" s="60"/>
+      <c r="AF79" s="60"/>
+      <c r="AG79" s="60"/>
+      <c r="AH79" s="60"/>
+      <c r="AI79" s="60"/>
+      <c r="AJ79" s="60"/>
+      <c r="AK79" s="60"/>
+      <c r="AL79" s="60"/>
+      <c r="AM79" s="60"/>
+    </row>
+    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A80" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="21">
+        <v>1</v>
+      </c>
+      <c r="C80" s="21">
+        <v>2</v>
+      </c>
+      <c r="D80" s="21">
+        <v>3</v>
+      </c>
+      <c r="E80" s="21">
+        <v>4</v>
+      </c>
+      <c r="F80" s="20">
+        <v>5</v>
+      </c>
+      <c r="G80" s="20">
+        <v>6</v>
+      </c>
+      <c r="H80" s="20">
         <v>7</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="I80" s="20">
+        <v>8</v>
+      </c>
+      <c r="J80" s="20">
+        <v>9</v>
+      </c>
+      <c r="K80" s="20">
+        <v>10</v>
+      </c>
+      <c r="L80" s="20">
+        <v>11</v>
+      </c>
+      <c r="M80" s="20">
+        <v>12</v>
+      </c>
+      <c r="N80" s="20">
+        <v>13</v>
+      </c>
+      <c r="O80" s="20">
+        <v>14</v>
+      </c>
+      <c r="P80" s="20">
+        <v>15</v>
+      </c>
+      <c r="Q80" s="20">
+        <v>16</v>
+      </c>
+      <c r="R80" s="20">
+        <v>17</v>
+      </c>
+      <c r="S80" s="20">
+        <v>18</v>
+      </c>
+      <c r="T80" s="20">
+        <v>19</v>
+      </c>
+      <c r="U80" s="20">
+        <v>20</v>
+      </c>
+      <c r="V80" s="20">
+        <v>21</v>
+      </c>
+      <c r="W80" s="20">
+        <v>22</v>
+      </c>
+      <c r="X80" s="20">
+        <v>23</v>
+      </c>
+      <c r="Y80" s="22">
+        <v>24</v>
+      </c>
+      <c r="Z80" s="22">
+        <v>25</v>
+      </c>
+      <c r="AA80" s="22">
+        <v>26</v>
+      </c>
+      <c r="AB80" s="22">
+        <v>27</v>
+      </c>
+      <c r="AC80" s="22">
+        <v>28</v>
+      </c>
+      <c r="AD80" s="22">
         <v>29</v>
       </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
-      <c r="Z79" s="1"/>
-      <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
-      <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-      <c r="AG79" s="1"/>
-      <c r="AH79" s="1"/>
-      <c r="AI79" s="1"/>
-      <c r="AJ79" s="1"/>
-      <c r="AK79" s="1"/>
-      <c r="AL79" s="1"/>
-      <c r="AM79" s="1"/>
-    </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="30" t="s">
+      <c r="AE80" s="22">
+        <v>30</v>
+      </c>
+      <c r="AF80" s="22">
         <v>31</v>
       </c>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="30"/>
-      <c r="M80" s="30"/>
-      <c r="N80" s="30"/>
-      <c r="O80" s="30"/>
-      <c r="P80" s="30"/>
-      <c r="Q80" s="30"/>
-      <c r="R80" s="30"/>
-      <c r="S80" s="30"/>
-      <c r="T80" s="30"/>
-      <c r="U80" s="30"/>
-      <c r="V80" s="30"/>
-      <c r="W80" s="30"/>
-      <c r="X80" s="30"/>
-      <c r="Y80" s="30"/>
-      <c r="Z80" s="30"/>
-      <c r="AA80" s="30"/>
-      <c r="AB80" s="30"/>
-      <c r="AC80" s="30"/>
-      <c r="AD80" s="30"/>
-      <c r="AE80" s="30"/>
-      <c r="AF80" s="30"/>
-      <c r="AG80" s="30"/>
-      <c r="AH80" s="30"/>
-      <c r="AI80" s="30"/>
-      <c r="AJ80" s="30"/>
-      <c r="AK80" s="30"/>
-      <c r="AL80" s="30"/>
-      <c r="AM80" s="30"/>
+      <c r="AG80" s="22">
+        <v>32</v>
+      </c>
+      <c r="AH80" s="20">
+        <v>33</v>
+      </c>
+      <c r="AI80" s="20">
+        <v>34</v>
+      </c>
+      <c r="AJ80" s="20">
+        <v>35</v>
+      </c>
+      <c r="AK80" s="20">
+        <v>36</v>
+      </c>
+      <c r="AL80" s="20">
+        <v>37</v>
+      </c>
+      <c r="AM80" s="20">
+        <v>38</v>
+      </c>
+      <c r="AN80" s="20">
+        <v>39</v>
+      </c>
+      <c r="AO80" s="20">
+        <v>40</v>
+      </c>
+      <c r="AP80" s="20">
+        <v>41</v>
+      </c>
+      <c r="AQ80" s="28">
+        <v>42</v>
+      </c>
+      <c r="AR80" s="20">
+        <v>43</v>
+      </c>
+      <c r="AS80" s="20">
+        <v>44</v>
+      </c>
+      <c r="AT80" s="20">
+        <v>45</v>
+      </c>
+      <c r="AU80" s="20">
+        <v>46</v>
+      </c>
+      <c r="AV80" s="20">
+        <v>47</v>
+      </c>
+      <c r="AW80" s="20">
+        <v>48</v>
+      </c>
+      <c r="AX80" s="20">
+        <v>49</v>
+      </c>
+      <c r="AY80" s="20">
+        <v>50</v>
+      </c>
+      <c r="AZ80" s="20">
+        <v>51</v>
+      </c>
+      <c r="BA80" s="20">
+        <v>52</v>
+      </c>
+      <c r="BB80" s="20">
+        <v>53</v>
+      </c>
     </row>
     <row r="81" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="21">
-        <v>1</v>
-      </c>
-      <c r="C81" s="21">
-        <v>2</v>
-      </c>
-      <c r="D81" s="21">
-        <v>3</v>
-      </c>
-      <c r="E81" s="21">
-        <v>4</v>
-      </c>
-      <c r="F81" s="20">
-        <v>5</v>
-      </c>
-      <c r="G81" s="20">
-        <v>6</v>
-      </c>
-      <c r="H81" s="20">
-        <v>7</v>
-      </c>
-      <c r="I81" s="20">
-        <v>8</v>
-      </c>
-      <c r="J81" s="20">
-        <v>9</v>
-      </c>
-      <c r="K81" s="20">
-        <v>10</v>
-      </c>
-      <c r="L81" s="20">
-        <v>11</v>
-      </c>
-      <c r="M81" s="20">
-        <v>12</v>
-      </c>
-      <c r="N81" s="20">
         <v>13</v>
       </c>
-      <c r="O81" s="20">
-        <v>14</v>
-      </c>
-      <c r="P81" s="20">
-        <v>15</v>
-      </c>
-      <c r="Q81" s="20">
-        <v>16</v>
-      </c>
-      <c r="R81" s="20">
-        <v>17</v>
-      </c>
-      <c r="S81" s="20">
-        <v>18</v>
-      </c>
-      <c r="T81" s="20">
-        <v>19</v>
-      </c>
-      <c r="U81" s="20">
-        <v>20</v>
-      </c>
-      <c r="V81" s="20">
-        <v>21</v>
-      </c>
-      <c r="W81" s="20">
-        <v>22</v>
-      </c>
-      <c r="X81" s="20">
-        <v>23</v>
-      </c>
-      <c r="Y81" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z81" s="22">
-        <v>25</v>
-      </c>
-      <c r="AA81" s="22">
-        <v>26</v>
-      </c>
-      <c r="AB81" s="22">
+      <c r="B81" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="20"/>
+      <c r="Q81" s="20"/>
+      <c r="R81" s="20"/>
+      <c r="S81" s="20"/>
+      <c r="T81" s="20"/>
+      <c r="U81" s="20"/>
+      <c r="V81" s="20"/>
+      <c r="W81" s="20"/>
+      <c r="X81" s="20"/>
+      <c r="Y81" s="22"/>
+      <c r="Z81" s="22"/>
+      <c r="AA81" s="22"/>
+      <c r="AB81" s="22"/>
+      <c r="AC81" s="22"/>
+      <c r="AD81" s="22"/>
+      <c r="AE81" s="22"/>
+      <c r="AF81" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG81" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH81" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI81" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ81" s="22"/>
+      <c r="AK81" s="20"/>
+      <c r="AL81" s="20"/>
+      <c r="AM81" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN81" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO81" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP81" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ81" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AC81" s="22">
-        <v>28</v>
-      </c>
-      <c r="AD81" s="22">
-        <v>29</v>
-      </c>
-      <c r="AE81" s="22">
-        <v>30</v>
-      </c>
-      <c r="AF81" s="22">
-        <v>31</v>
-      </c>
-      <c r="AG81" s="22">
-        <v>32</v>
-      </c>
-      <c r="AH81" s="20">
-        <v>33</v>
-      </c>
-      <c r="AI81" s="20">
-        <v>34</v>
-      </c>
-      <c r="AJ81" s="20">
-        <v>35</v>
-      </c>
-      <c r="AK81" s="20">
-        <v>36</v>
-      </c>
-      <c r="AL81" s="20">
-        <v>37</v>
-      </c>
-      <c r="AM81" s="20">
-        <v>38</v>
-      </c>
-      <c r="AN81" s="20">
-        <v>39</v>
-      </c>
-      <c r="AO81" s="20">
-        <v>40</v>
-      </c>
-      <c r="AP81" s="20">
-        <v>41</v>
-      </c>
-      <c r="AQ81" s="20">
-        <v>42</v>
-      </c>
-      <c r="AR81" s="20">
-        <v>43</v>
-      </c>
-      <c r="AS81" s="20">
-        <v>44</v>
-      </c>
-      <c r="AT81" s="20">
-        <v>45</v>
-      </c>
-      <c r="AU81" s="20">
-        <v>46</v>
-      </c>
-      <c r="AV81" s="20">
-        <v>47</v>
-      </c>
-      <c r="AW81" s="20">
-        <v>48</v>
-      </c>
-      <c r="AX81" s="20">
-        <v>49</v>
-      </c>
-      <c r="AY81" s="20">
-        <v>50</v>
-      </c>
-      <c r="AZ81" s="20">
-        <v>51</v>
-      </c>
-      <c r="BA81" s="20">
-        <v>52</v>
-      </c>
-      <c r="BB81" s="20">
-        <v>53</v>
-      </c>
+      <c r="AR81" s="20"/>
+      <c r="AS81" s="20"/>
+      <c r="AT81" s="20"/>
+      <c r="AU81" s="20"/>
+      <c r="AV81" s="20"/>
+      <c r="AW81" s="20"/>
+      <c r="AX81" s="15"/>
+      <c r="AY81" s="15"/>
+      <c r="AZ81" s="15"/>
+      <c r="BA81" s="15"/>
+      <c r="BB81" s="15"/>
     </row>
     <row r="82" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F82" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
       <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
+      <c r="I82" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J82" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K82" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M82" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N82" s="20"/>
       <c r="O82" s="20"/>
       <c r="P82" s="20"/>
       <c r="Q82" s="20"/>
       <c r="R82" s="20"/>
-      <c r="S82" s="20"/>
-      <c r="T82" s="20"/>
-      <c r="U82" s="20"/>
-      <c r="V82" s="20"/>
-      <c r="W82" s="20"/>
+      <c r="S82" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="T82" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="U82" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="V82" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="W82" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="X82" s="20"/>
       <c r="Y82" s="22"/>
-      <c r="Z82" s="22"/>
-      <c r="AA82" s="22"/>
-      <c r="AB82" s="22"/>
+      <c r="Z82" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA82" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB82" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="AC82" s="22"/>
       <c r="AD82" s="22"/>
       <c r="AE82" s="22"/>
@@ -4991,14 +5128,14 @@
       <c r="AG82" s="22"/>
       <c r="AH82" s="20"/>
       <c r="AI82" s="20"/>
-      <c r="AJ82" s="22"/>
+      <c r="AJ82" s="20"/>
       <c r="AK82" s="20"/>
       <c r="AL82" s="20"/>
       <c r="AM82" s="20"/>
       <c r="AN82" s="20"/>
       <c r="AO82" s="20"/>
       <c r="AP82" s="20"/>
-      <c r="AQ82" s="20"/>
+      <c r="AQ82" s="28"/>
       <c r="AR82" s="20"/>
       <c r="AS82" s="20"/>
       <c r="AT82" s="20"/>
@@ -5013,7 +5150,7 @@
     </row>
     <row r="83" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
@@ -5022,40 +5159,60 @@
       <c r="F83" s="20"/>
       <c r="G83" s="20"/>
       <c r="H83" s="20"/>
-      <c r="I83" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J83" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K83" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
       <c r="L83" s="20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="N83" s="20"/>
-      <c r="O83" s="20"/>
-      <c r="P83" s="20"/>
-      <c r="Q83" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="N83" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O83" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P83" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q83" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="R83" s="20"/>
       <c r="S83" s="20"/>
       <c r="T83" s="20"/>
       <c r="U83" s="20"/>
-      <c r="V83" s="20"/>
-      <c r="W83" s="20"/>
-      <c r="X83" s="20"/>
-      <c r="Y83" s="22"/>
-      <c r="Z83" s="22"/>
-      <c r="AA83" s="22"/>
-      <c r="AB83" s="22"/>
+      <c r="V83" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="W83" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X83" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y83" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z83" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA83" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB83" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="AC83" s="22"/>
       <c r="AD83" s="22"/>
-      <c r="AE83" s="22"/>
-      <c r="AF83" s="22"/>
+      <c r="AE83" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF83" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="AG83" s="22"/>
       <c r="AH83" s="20"/>
       <c r="AI83" s="20"/>
@@ -5066,7 +5223,7 @@
       <c r="AN83" s="20"/>
       <c r="AO83" s="20"/>
       <c r="AP83" s="20"/>
-      <c r="AQ83" s="20"/>
+      <c r="AQ83" s="28"/>
       <c r="AR83" s="20"/>
       <c r="AS83" s="20"/>
       <c r="AT83" s="20"/>
@@ -5081,26 +5238,46 @@
     </row>
     <row r="84" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
+      <c r="G84" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H84" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
+      <c r="K84" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L84" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M84" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="N84" s="20"/>
       <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="20"/>
-      <c r="S84" s="20"/>
+      <c r="P84" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q84" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="R84" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S84" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="T84" s="20"/>
       <c r="U84" s="20"/>
       <c r="V84" s="20"/>
@@ -5124,7 +5301,7 @@
       <c r="AN84" s="20"/>
       <c r="AO84" s="20"/>
       <c r="AP84" s="20"/>
-      <c r="AQ84" s="20"/>
+      <c r="AQ84" s="28"/>
       <c r="AR84" s="20"/>
       <c r="AS84" s="20"/>
       <c r="AT84" s="20"/>
@@ -5139,22 +5316,16 @@
     </row>
     <row r="85" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I85" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
       <c r="J85" s="20"/>
       <c r="K85" s="20"/>
       <c r="L85" s="20"/>
@@ -5173,27 +5344,65 @@
       <c r="Y85" s="22"/>
       <c r="Z85" s="22"/>
       <c r="AA85" s="22"/>
-      <c r="AB85" s="22"/>
-      <c r="AC85" s="22"/>
-      <c r="AD85" s="22"/>
-      <c r="AE85" s="22"/>
-      <c r="AF85" s="22"/>
+      <c r="AB85" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC85" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD85" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE85" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF85" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="AG85" s="22"/>
       <c r="AH85" s="20"/>
-      <c r="AI85" s="20"/>
-      <c r="AJ85" s="20"/>
-      <c r="AK85" s="20"/>
-      <c r="AL85" s="20"/>
-      <c r="AM85" s="20"/>
-      <c r="AN85" s="20"/>
-      <c r="AO85" s="20"/>
-      <c r="AP85" s="20"/>
-      <c r="AQ85" s="20"/>
-      <c r="AR85" s="20"/>
-      <c r="AS85" s="20"/>
-      <c r="AT85" s="20"/>
-      <c r="AU85" s="20"/>
-      <c r="AV85" s="20"/>
+      <c r="AI85" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ85" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK85" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL85" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM85" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN85" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO85" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP85" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ85" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR85" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS85" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT85" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU85" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV85" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="AW85" s="20"/>
       <c r="AX85" s="15"/>
       <c r="AY85" s="15"/>
@@ -5202,112 +5411,110 @@
       <c r="BB85" s="15"/>
     </row>
     <row r="86" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="20"/>
-      <c r="N86" s="20"/>
-      <c r="O86" s="20"/>
-      <c r="P86" s="20"/>
-      <c r="Q86" s="20"/>
-      <c r="R86" s="20"/>
-      <c r="S86" s="20"/>
-      <c r="T86" s="20"/>
-      <c r="U86" s="20"/>
-      <c r="V86" s="20"/>
-      <c r="W86" s="20"/>
-      <c r="X86" s="20"/>
-      <c r="Y86" s="22"/>
-      <c r="Z86" s="22"/>
-      <c r="AA86" s="22"/>
-      <c r="AB86" s="22"/>
-      <c r="AC86" s="22"/>
-      <c r="AD86" s="22"/>
-      <c r="AE86" s="22"/>
-      <c r="AF86" s="22"/>
-      <c r="AG86" s="22"/>
-      <c r="AH86" s="20"/>
-      <c r="AI86" s="20"/>
-      <c r="AJ86" s="20"/>
-      <c r="AK86" s="20"/>
-      <c r="AL86" s="20"/>
-      <c r="AM86" s="20"/>
-      <c r="AN86" s="20"/>
-      <c r="AO86" s="20"/>
-      <c r="AP86" s="20"/>
-      <c r="AQ86" s="20"/>
-      <c r="AR86" s="20"/>
-      <c r="AS86" s="20"/>
-      <c r="AT86" s="20"/>
-      <c r="AU86" s="20"/>
-      <c r="AV86" s="20"/>
-      <c r="AW86" s="20"/>
-      <c r="AX86" s="15"/>
-      <c r="AY86" s="15"/>
-      <c r="AZ86" s="15"/>
-      <c r="BA86" s="15"/>
-      <c r="BB86" s="15"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="37"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="37"/>
+      <c r="S86" s="37"/>
+      <c r="T86" s="37"/>
+      <c r="U86" s="37"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="37"/>
+      <c r="X86" s="37"/>
+      <c r="Y86" s="37"/>
+      <c r="Z86" s="37"/>
+      <c r="AA86" s="37"/>
+      <c r="AB86" s="37"/>
+      <c r="AC86" s="37"/>
+      <c r="AD86" s="37"/>
+      <c r="AE86" s="37"/>
+      <c r="AF86" s="37"/>
+      <c r="AG86" s="37"/>
+      <c r="AH86" s="37"/>
+      <c r="AI86" s="37"/>
+      <c r="AJ86" s="37"/>
+      <c r="AK86" s="37"/>
+      <c r="AL86" s="37"/>
+      <c r="AM86" s="37"/>
+      <c r="AN86" s="39"/>
+      <c r="AO86" s="39"/>
+      <c r="AP86" s="39"/>
+      <c r="AQ86" s="39"/>
+      <c r="AR86" s="39"/>
+      <c r="AS86" s="39"/>
+      <c r="AT86" s="39"/>
+      <c r="AU86" s="39"/>
+      <c r="AV86" s="39"/>
+      <c r="AW86" s="26"/>
+      <c r="AX86" s="27"/>
+      <c r="AY86" s="27"/>
+      <c r="AZ86" s="27"/>
+      <c r="BA86" s="27"/>
+      <c r="BB86" s="27"/>
     </row>
     <row r="87" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
-      <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
-      <c r="Q87" s="3"/>
-      <c r="R87" s="3"/>
-      <c r="S87" s="3"/>
-      <c r="T87" s="3"/>
-      <c r="U87" s="3"/>
-      <c r="V87" s="3"/>
-      <c r="W87" s="3"/>
-      <c r="X87" s="3"/>
-      <c r="Y87" s="3"/>
-      <c r="Z87" s="3"/>
-      <c r="AA87" s="3"/>
-      <c r="AB87" s="3"/>
-      <c r="AC87" s="3"/>
-      <c r="AD87" s="3"/>
-      <c r="AE87" s="3"/>
-      <c r="AF87" s="3"/>
-      <c r="AG87" s="3"/>
-      <c r="AH87" s="3"/>
-      <c r="AI87" s="3"/>
-      <c r="AJ87" s="3"/>
-      <c r="AK87" s="3"/>
-      <c r="AL87" s="3"/>
-      <c r="AM87" s="3"/>
-      <c r="AN87" s="26"/>
-      <c r="AO87" s="26"/>
-      <c r="AP87" s="26"/>
-      <c r="AQ87" s="26"/>
-      <c r="AR87" s="26"/>
-      <c r="AS87" s="26"/>
-      <c r="AT87" s="26"/>
-      <c r="AU87" s="26"/>
-      <c r="AV87" s="26"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="37"/>
+      <c r="K87" s="37"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="37"/>
+      <c r="N87" s="37"/>
+      <c r="O87" s="37"/>
+      <c r="P87" s="37"/>
+      <c r="Q87" s="37"/>
+      <c r="R87" s="37"/>
+      <c r="S87" s="37"/>
+      <c r="T87" s="37"/>
+      <c r="U87" s="37"/>
+      <c r="V87" s="37"/>
+      <c r="W87" s="37"/>
+      <c r="X87" s="37"/>
+      <c r="Y87" s="37"/>
+      <c r="Z87" s="37"/>
+      <c r="AA87" s="37"/>
+      <c r="AB87" s="37"/>
+      <c r="AC87" s="37"/>
+      <c r="AD87" s="37"/>
+      <c r="AE87" s="37"/>
+      <c r="AF87" s="37"/>
+      <c r="AG87" s="37"/>
+      <c r="AH87" s="37"/>
+      <c r="AI87" s="37"/>
+      <c r="AJ87" s="37"/>
+      <c r="AK87" s="37"/>
+      <c r="AL87" s="37"/>
+      <c r="AM87" s="37"/>
+      <c r="AN87" s="39"/>
+      <c r="AO87" s="39"/>
+      <c r="AP87" s="39"/>
+      <c r="AQ87" s="39"/>
+      <c r="AR87" s="39"/>
+      <c r="AS87" s="39"/>
+      <c r="AT87" s="39"/>
+      <c r="AU87" s="39"/>
+      <c r="AV87" s="39"/>
       <c r="AW87" s="26"/>
       <c r="AX87" s="27"/>
       <c r="AY87" s="27"/>
@@ -5316,242 +5523,4741 @@
       <c r="BB87" s="27"/>
     </row>
     <row r="88" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A88" s="25"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
-      <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
-      <c r="S88" s="3"/>
-      <c r="T88" s="3"/>
-      <c r="U88" s="3"/>
-      <c r="V88" s="3"/>
-      <c r="W88" s="3"/>
-      <c r="X88" s="3"/>
-      <c r="Y88" s="3"/>
-      <c r="Z88" s="3"/>
-      <c r="AA88" s="3"/>
-      <c r="AB88" s="3"/>
-      <c r="AC88" s="3"/>
-      <c r="AD88" s="3"/>
-      <c r="AE88" s="3"/>
-      <c r="AF88" s="3"/>
-      <c r="AG88" s="3"/>
-      <c r="AH88" s="3"/>
-      <c r="AI88" s="3"/>
-      <c r="AJ88" s="3"/>
-      <c r="AK88" s="3"/>
-      <c r="AL88" s="3"/>
-      <c r="AM88" s="3"/>
-      <c r="AN88" s="26"/>
-      <c r="AO88" s="26"/>
-      <c r="AP88" s="26"/>
-      <c r="AQ88" s="26"/>
-      <c r="AR88" s="26"/>
-      <c r="AS88" s="26"/>
-      <c r="AT88" s="26"/>
-      <c r="AU88" s="26"/>
-      <c r="AV88" s="26"/>
-      <c r="AW88" s="26"/>
-      <c r="AX88" s="27"/>
-      <c r="AY88" s="27"/>
-      <c r="AZ88" s="27"/>
-      <c r="BA88" s="27"/>
-      <c r="BB88" s="27"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
+      <c r="T88" s="13"/>
+      <c r="U88" s="13"/>
+      <c r="V88" s="13"/>
+      <c r="W88" s="13"/>
+      <c r="X88" s="13"/>
+      <c r="Y88" s="13"/>
+      <c r="Z88" s="13"/>
+      <c r="AA88" s="13"/>
+      <c r="AB88" s="13"/>
+      <c r="AC88" s="13"/>
+      <c r="AD88" s="13"/>
+      <c r="AE88" s="13"/>
+      <c r="AF88" s="13"/>
+      <c r="AG88" s="13"/>
+      <c r="AH88" s="13"/>
+      <c r="AI88" s="13"/>
+      <c r="AJ88" s="13"/>
+      <c r="AK88" s="13"/>
+      <c r="AL88" s="13"/>
+      <c r="AM88" s="13"/>
     </row>
     <row r="89" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="13"/>
-      <c r="O89" s="13"/>
-      <c r="P89" s="13"/>
-      <c r="Q89" s="13"/>
-      <c r="R89" s="13"/>
-      <c r="S89" s="13"/>
-      <c r="T89" s="13"/>
-      <c r="U89" s="13"/>
-      <c r="V89" s="13"/>
-      <c r="W89" s="13"/>
-      <c r="X89" s="13"/>
-      <c r="Y89" s="13"/>
-      <c r="Z89" s="13"/>
-      <c r="AA89" s="13"/>
-      <c r="AB89" s="13"/>
-      <c r="AC89" s="13"/>
-      <c r="AD89" s="13"/>
-      <c r="AE89" s="13"/>
-      <c r="AF89" s="13"/>
-      <c r="AG89" s="13"/>
-      <c r="AH89" s="13"/>
-      <c r="AI89" s="13"/>
-      <c r="AJ89" s="13"/>
-      <c r="AK89" s="13"/>
-      <c r="AL89" s="13"/>
-      <c r="AM89" s="13"/>
+      <c r="A89" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M89" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N89" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="O89" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P89" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q89" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="R89" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S89" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="T89" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U89" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="V89" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="W89" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X89" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y89" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z89" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA89" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB89" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC89" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD89" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE89" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF89" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG89" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH89" s="8"/>
+      <c r="AI89" s="8"/>
+      <c r="AJ89" s="8"/>
+      <c r="AK89" s="8"/>
+      <c r="AL89" s="8"/>
+      <c r="AM89" s="8"/>
     </row>
     <row r="90" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R90" s="10"/>
+      <c r="S90" s="10"/>
+      <c r="T90" s="10"/>
+      <c r="U90" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="V90" s="10"/>
+      <c r="W90" s="10"/>
+      <c r="X90" s="10"/>
+      <c r="Y90" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z90" s="10"/>
+      <c r="AA90" s="10"/>
+      <c r="AB90" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC90" s="10"/>
+      <c r="AD90" s="10"/>
+      <c r="AE90" s="10"/>
+      <c r="AF90" s="10"/>
+      <c r="AG90" s="10"/>
+      <c r="AH90" s="10"/>
+      <c r="AI90" s="10"/>
+      <c r="AJ90" s="10"/>
+      <c r="AK90" s="10"/>
+      <c r="AL90" s="10"/>
+      <c r="AM90" s="10"/>
+    </row>
+    <row r="101" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A101" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="56"/>
+      <c r="C101" s="56"/>
+      <c r="D101" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="58"/>
+      <c r="J101" s="58"/>
+      <c r="K101" s="58"/>
+      <c r="L101" s="58"/>
+      <c r="M101" s="58"/>
+      <c r="N101" s="58"/>
+      <c r="O101" s="58"/>
+      <c r="P101" s="58"/>
+      <c r="Q101" s="58"/>
+      <c r="R101" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="56"/>
+      <c r="T101" s="56"/>
+      <c r="U101" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="V101" s="62"/>
+      <c r="W101" s="62"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
+      <c r="AF101" s="2"/>
+      <c r="AG101" s="2"/>
+      <c r="AH101" s="2"/>
+      <c r="AI101" s="2"/>
+      <c r="AJ101" s="2"/>
+      <c r="AK101" s="2"/>
+      <c r="AL101" s="2"/>
+      <c r="AM101" s="1"/>
+    </row>
+    <row r="102" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A102" s="56"/>
+      <c r="B102" s="56"/>
+      <c r="C102" s="56"/>
+      <c r="D102" s="61"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="61"/>
+      <c r="H102" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="58"/>
+      <c r="J102" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="K102" s="58"/>
+      <c r="L102" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="58"/>
+      <c r="N102" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="O102" s="58"/>
+      <c r="P102" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="58"/>
+      <c r="R102" s="56"/>
+      <c r="S102" s="56"/>
+      <c r="T102" s="56"/>
+      <c r="U102" s="62"/>
+      <c r="V102" s="62"/>
+      <c r="W102" s="62"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="AF102" s="1"/>
+      <c r="AG102" s="1"/>
+      <c r="AH102" s="1"/>
+      <c r="AI102" s="1"/>
+      <c r="AJ102" s="1"/>
+      <c r="AK102" s="1"/>
+      <c r="AL102" s="1"/>
+      <c r="AM102" s="1"/>
+    </row>
+    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A103" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="50"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="52"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="53">
+        <v>5</v>
+      </c>
+      <c r="I103" s="53"/>
+      <c r="J103" s="53">
+        <v>1</v>
+      </c>
+      <c r="K103" s="53"/>
+      <c r="L103" s="53">
+        <v>3</v>
+      </c>
+      <c r="M103" s="53"/>
+      <c r="N103" s="53">
+        <v>1</v>
+      </c>
+      <c r="O103" s="53"/>
+      <c r="P103" s="53">
+        <v>4</v>
+      </c>
+      <c r="Q103" s="53"/>
+      <c r="R103" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="S103" s="50"/>
+      <c r="T103" s="50"/>
+      <c r="U103" s="51">
+        <f>SUM(H103,L103,P103)</f>
+        <v>12</v>
+      </c>
+      <c r="V103" s="51"/>
+      <c r="W103" s="51"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="AF103" s="1"/>
+      <c r="AG103" s="1"/>
+      <c r="AH103" s="1"/>
+      <c r="AI103" s="1"/>
+      <c r="AJ103" s="1"/>
+      <c r="AK103" s="1"/>
+      <c r="AL103" s="1"/>
+      <c r="AM103" s="1"/>
+    </row>
+    <row r="104" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A104" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" s="50"/>
+      <c r="C104" s="50"/>
+      <c r="D104" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" s="52"/>
+      <c r="F104" s="52"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="53">
+        <v>2</v>
+      </c>
+      <c r="I104" s="53"/>
+      <c r="J104" s="53">
+        <v>3</v>
+      </c>
+      <c r="K104" s="53"/>
+      <c r="L104" s="53">
+        <v>3</v>
+      </c>
+      <c r="M104" s="53"/>
+      <c r="N104" s="53">
+        <v>2</v>
+      </c>
+      <c r="O104" s="53"/>
+      <c r="P104" s="53">
+        <v>2</v>
+      </c>
+      <c r="Q104" s="53"/>
+      <c r="R104" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="S104" s="50"/>
+      <c r="T104" s="50"/>
+      <c r="U104" s="51">
+        <f t="shared" ref="U104:U107" si="2">SUM(H104,L104,P104)</f>
+        <v>7</v>
+      </c>
+      <c r="V104" s="51"/>
+      <c r="W104" s="51"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="AF104" s="1"/>
+      <c r="AG104" s="1"/>
+      <c r="AH104" s="1"/>
+      <c r="AI104" s="1"/>
+      <c r="AJ104" s="1"/>
+      <c r="AK104" s="1"/>
+      <c r="AL104" s="1"/>
+      <c r="AM104" s="1"/>
+    </row>
+    <row r="105" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A105" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="50"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" s="52"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="53">
+        <v>4</v>
+      </c>
+      <c r="I105" s="53"/>
+      <c r="J105" s="53">
+        <v>2</v>
+      </c>
+      <c r="K105" s="53"/>
+      <c r="L105" s="53">
+        <v>4</v>
+      </c>
+      <c r="M105" s="53"/>
+      <c r="N105" s="53">
+        <v>3</v>
+      </c>
+      <c r="O105" s="53"/>
+      <c r="P105" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="53"/>
+      <c r="R105" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S105" s="50"/>
+      <c r="T105" s="50"/>
+      <c r="U105" s="51">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="V105" s="51"/>
+      <c r="W105" s="51"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="AF105" s="1"/>
+      <c r="AG105" s="1"/>
+      <c r="AH105" s="1"/>
+      <c r="AI105" s="1"/>
+      <c r="AJ105" s="1"/>
+      <c r="AK105" s="1"/>
+      <c r="AL105" s="1"/>
+      <c r="AM105" s="1"/>
+    </row>
+    <row r="106" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A106" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" s="50"/>
+      <c r="C106" s="50"/>
+      <c r="D106" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106" s="52"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="53">
+        <v>2</v>
+      </c>
+      <c r="I106" s="53"/>
+      <c r="J106" s="53">
+        <v>1</v>
+      </c>
+      <c r="K106" s="53"/>
+      <c r="L106" s="53">
+        <v>1</v>
+      </c>
+      <c r="M106" s="53"/>
+      <c r="N106" s="53">
+        <v>2</v>
+      </c>
+      <c r="O106" s="53"/>
+      <c r="P106" s="53">
+        <v>3</v>
+      </c>
+      <c r="Q106" s="53"/>
+      <c r="R106" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="S106" s="50"/>
+      <c r="T106" s="50"/>
+      <c r="U106" s="51">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="V106" s="51"/>
+      <c r="W106" s="51"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="AF106" s="1"/>
+      <c r="AG106" s="1"/>
+      <c r="AH106" s="1"/>
+      <c r="AI106" s="1"/>
+      <c r="AJ106" s="1"/>
+      <c r="AK106" s="1"/>
+      <c r="AL106" s="1"/>
+      <c r="AM106" s="1"/>
+    </row>
+    <row r="107" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A107" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" s="50"/>
+      <c r="C107" s="50"/>
+      <c r="D107" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107" s="52"/>
+      <c r="F107" s="52"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="53">
+        <v>3</v>
+      </c>
+      <c r="I107" s="53"/>
+      <c r="J107" s="53">
+        <v>2</v>
+      </c>
+      <c r="K107" s="53"/>
+      <c r="L107" s="53">
+        <v>4</v>
+      </c>
+      <c r="M107" s="53"/>
+      <c r="N107" s="53">
+        <v>5</v>
+      </c>
+      <c r="O107" s="53"/>
+      <c r="P107" s="53">
+        <v>4</v>
+      </c>
+      <c r="Q107" s="53"/>
+      <c r="R107" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S107" s="50"/>
+      <c r="T107" s="50"/>
+      <c r="U107" s="51">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="V107" s="51"/>
+      <c r="W107" s="51"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="AF107" s="1"/>
+      <c r="AG107" s="1"/>
+      <c r="AH107" s="1"/>
+      <c r="AI107" s="1"/>
+      <c r="AJ107" s="1"/>
+      <c r="AK107" s="1"/>
+      <c r="AL107" s="1"/>
+      <c r="AM107" s="1"/>
+    </row>
+    <row r="108" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A108" s="50"/>
+      <c r="B108" s="50"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="52"/>
+      <c r="E108" s="52"/>
+      <c r="F108" s="52"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="50"/>
+      <c r="J108" s="50"/>
+      <c r="K108" s="50"/>
+      <c r="L108" s="50"/>
+      <c r="M108" s="50"/>
+      <c r="N108" s="50"/>
+      <c r="O108" s="50"/>
+      <c r="P108" s="50"/>
+      <c r="Q108" s="50"/>
+      <c r="R108" s="50"/>
+      <c r="S108" s="50"/>
+      <c r="T108" s="50"/>
+      <c r="U108" s="51">
+        <f>SUM(H108,L108)</f>
+        <v>0</v>
+      </c>
+      <c r="V108" s="51"/>
+      <c r="W108" s="51"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="AF108" s="1"/>
+      <c r="AG108" s="1"/>
+      <c r="AH108" s="1"/>
+      <c r="AI108" s="1"/>
+      <c r="AJ108" s="1"/>
+      <c r="AK108" s="1"/>
+      <c r="AL108" s="1"/>
+      <c r="AM108" s="1"/>
+    </row>
+    <row r="109" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A109" s="50"/>
+      <c r="B109" s="50"/>
+      <c r="C109" s="50"/>
+      <c r="D109" s="52"/>
+      <c r="E109" s="52"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="50"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="50"/>
+      <c r="K109" s="50"/>
+      <c r="L109" s="50"/>
+      <c r="M109" s="50"/>
+      <c r="N109" s="50"/>
+      <c r="O109" s="50"/>
+      <c r="P109" s="50"/>
+      <c r="Q109" s="50"/>
+      <c r="R109" s="50"/>
+      <c r="S109" s="50"/>
+      <c r="T109" s="50"/>
+      <c r="U109" s="51">
+        <f>SUM(H109,L109)</f>
+        <v>0</v>
+      </c>
+      <c r="V109" s="51"/>
+      <c r="W109" s="51"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="AF109" s="1"/>
+      <c r="AG109" s="1"/>
+      <c r="AH109" s="1"/>
+      <c r="AI109" s="1"/>
+      <c r="AJ109" s="1"/>
+      <c r="AK109" s="1"/>
+      <c r="AL109" s="1"/>
+      <c r="AM109" s="1"/>
+    </row>
+    <row r="110" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1"/>
+      <c r="AA110" s="1"/>
+      <c r="AB110" s="1"/>
+      <c r="AC110" s="1"/>
+      <c r="AD110" s="1"/>
+      <c r="AE110" s="1"/>
+      <c r="AF110" s="1"/>
+      <c r="AG110" s="1"/>
+      <c r="AH110" s="1"/>
+      <c r="AI110" s="1"/>
+      <c r="AJ110" s="1"/>
+      <c r="AK110" s="1"/>
+      <c r="AL110" s="1"/>
+      <c r="AM110" s="1"/>
+    </row>
+    <row r="111" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A111" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="48"/>
+      <c r="D111" s="48"/>
+      <c r="E111" s="48"/>
+      <c r="F111" s="48"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="48"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
+      <c r="AB111" s="1"/>
+      <c r="AC111" s="1"/>
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="1"/>
+      <c r="AF111" s="1"/>
+      <c r="AG111" s="1"/>
+      <c r="AH111" s="1"/>
+      <c r="AI111" s="1"/>
+      <c r="AJ111" s="1"/>
+      <c r="AK111" s="1"/>
+      <c r="AL111" s="1"/>
+      <c r="AM111" s="1"/>
+    </row>
+    <row r="112" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A112" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" s="48"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="48"/>
+      <c r="I112" s="48"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+      <c r="AB112" s="1"/>
+      <c r="AC112" s="1"/>
+      <c r="AD112" s="1"/>
+      <c r="AE112" s="1"/>
+      <c r="AF112" s="1"/>
+      <c r="AG112" s="1"/>
+      <c r="AH112" s="1"/>
+      <c r="AI112" s="1"/>
+      <c r="AJ112" s="1"/>
+      <c r="AK112" s="1"/>
+      <c r="AL112" s="1"/>
+      <c r="AM112" s="1"/>
+    </row>
+    <row r="113" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" s="60"/>
+      <c r="F113" s="60"/>
+      <c r="G113" s="60"/>
+      <c r="H113" s="60"/>
+      <c r="I113" s="60"/>
+      <c r="J113" s="60"/>
+      <c r="K113" s="60"/>
+      <c r="L113" s="60"/>
+      <c r="M113" s="60"/>
+      <c r="N113" s="60"/>
+      <c r="O113" s="60"/>
+      <c r="P113" s="60"/>
+      <c r="Q113" s="60"/>
+      <c r="R113" s="60"/>
+      <c r="S113" s="60"/>
+      <c r="T113" s="60"/>
+      <c r="U113" s="60"/>
+      <c r="V113" s="60"/>
+      <c r="W113" s="60"/>
+      <c r="X113" s="60"/>
+      <c r="Y113" s="60"/>
+      <c r="Z113" s="60"/>
+      <c r="AA113" s="60"/>
+      <c r="AB113" s="60"/>
+      <c r="AC113" s="60"/>
+      <c r="AD113" s="60"/>
+      <c r="AE113" s="60"/>
+      <c r="AF113" s="60"/>
+      <c r="AG113" s="60"/>
+      <c r="AH113" s="60"/>
+      <c r="AI113" s="60"/>
+      <c r="AJ113" s="60"/>
+      <c r="AK113" s="60"/>
+      <c r="AL113" s="60"/>
+      <c r="AM113" s="60"/>
+    </row>
+    <row r="114" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A114" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="30">
+        <v>1</v>
+      </c>
+      <c r="C114" s="30">
+        <v>2</v>
+      </c>
+      <c r="D114" s="30">
+        <v>3</v>
+      </c>
+      <c r="E114" s="30">
+        <v>4</v>
+      </c>
+      <c r="F114" s="29">
+        <v>5</v>
+      </c>
+      <c r="G114" s="29">
+        <v>6</v>
+      </c>
+      <c r="H114" s="29">
+        <v>7</v>
+      </c>
+      <c r="I114" s="29">
         <v>8</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="J114" s="29">
+        <v>9</v>
+      </c>
+      <c r="K114" s="29">
+        <v>10</v>
+      </c>
+      <c r="L114" s="29">
+        <v>11</v>
+      </c>
+      <c r="M114" s="29">
+        <v>12</v>
+      </c>
+      <c r="N114" s="29">
+        <v>13</v>
+      </c>
+      <c r="O114" s="29">
+        <v>14</v>
+      </c>
+      <c r="P114" s="29">
+        <v>15</v>
+      </c>
+      <c r="Q114" s="29">
+        <v>16</v>
+      </c>
+      <c r="R114" s="29">
+        <v>17</v>
+      </c>
+      <c r="S114" s="29">
+        <v>18</v>
+      </c>
+      <c r="T114" s="29">
+        <v>19</v>
+      </c>
+      <c r="U114" s="29">
+        <v>20</v>
+      </c>
+      <c r="V114" s="29">
+        <v>21</v>
+      </c>
+      <c r="W114" s="29">
+        <v>22</v>
+      </c>
+      <c r="X114" s="29">
+        <v>23</v>
+      </c>
+      <c r="Y114" s="31">
+        <v>24</v>
+      </c>
+      <c r="Z114" s="31">
+        <v>25</v>
+      </c>
+      <c r="AA114" s="31">
+        <v>26</v>
+      </c>
+      <c r="AB114" s="31">
+        <v>27</v>
+      </c>
+      <c r="AC114" s="31">
+        <v>28</v>
+      </c>
+      <c r="AD114" s="31">
+        <v>29</v>
+      </c>
+      <c r="AE114" s="31">
+        <v>30</v>
+      </c>
+      <c r="AF114" s="31">
+        <v>31</v>
+      </c>
+      <c r="AG114" s="31">
+        <v>32</v>
+      </c>
+      <c r="AH114" s="29">
+        <v>33</v>
+      </c>
+      <c r="AI114" s="29">
+        <v>34</v>
+      </c>
+      <c r="AJ114" s="29">
+        <v>35</v>
+      </c>
+      <c r="AK114" s="29">
+        <v>36</v>
+      </c>
+      <c r="AL114" s="29">
+        <v>37</v>
+      </c>
+      <c r="AM114" s="29">
+        <v>38</v>
+      </c>
+      <c r="AN114" s="29">
+        <v>39</v>
+      </c>
+      <c r="AO114" s="29">
+        <v>40</v>
+      </c>
+      <c r="AP114" s="28">
+        <v>41</v>
+      </c>
+      <c r="AQ114" s="28">
+        <v>42</v>
+      </c>
+      <c r="AR114" s="29">
+        <v>43</v>
+      </c>
+      <c r="AS114" s="29">
+        <v>44</v>
+      </c>
+      <c r="AT114" s="29">
+        <v>45</v>
+      </c>
+      <c r="AU114" s="29">
+        <v>46</v>
+      </c>
+      <c r="AV114" s="29">
+        <v>47</v>
+      </c>
+      <c r="AW114" s="29">
+        <v>48</v>
+      </c>
+      <c r="AX114" s="29">
+        <v>49</v>
+      </c>
+      <c r="AY114" s="29">
+        <v>50</v>
+      </c>
+      <c r="AZ114" s="29">
+        <v>51</v>
+      </c>
+      <c r="BA114" s="29">
+        <v>52</v>
+      </c>
+      <c r="BB114" s="29">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A115" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="16"/>
+      <c r="L115" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M115" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N115" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O115" s="29"/>
+      <c r="P115" s="29"/>
+      <c r="Q115" s="29"/>
+      <c r="R115" s="29"/>
+      <c r="S115" s="29"/>
+      <c r="T115" s="29"/>
+      <c r="U115" s="29"/>
+      <c r="V115" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="W115" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="X115" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y115" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z115" s="31"/>
+      <c r="AA115" s="31"/>
+      <c r="AB115" s="31"/>
+      <c r="AC115" s="31"/>
+      <c r="AD115" s="31"/>
+      <c r="AE115" s="31"/>
+      <c r="AF115" s="31"/>
+      <c r="AG115" s="31"/>
+      <c r="AH115" s="29"/>
+      <c r="AI115" s="29"/>
+      <c r="AJ115" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK115" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL115" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM115" s="29"/>
+      <c r="AN115" s="29"/>
+      <c r="AO115" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP115" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ115" s="28"/>
+      <c r="AR115" s="29"/>
+      <c r="AS115" s="29"/>
+      <c r="AT115" s="29"/>
+      <c r="AU115" s="29"/>
+      <c r="AV115" s="29"/>
+      <c r="AW115" s="29"/>
+      <c r="AX115" s="15"/>
+      <c r="AY115" s="15"/>
+      <c r="AZ115" s="15"/>
+      <c r="BA115" s="15"/>
+      <c r="BB115" s="15"/>
+    </row>
+    <row r="116" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A116" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F116" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G116" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H116" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I116" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J116" s="29"/>
+      <c r="K116" s="29"/>
+      <c r="L116" s="29"/>
+      <c r="M116" s="29"/>
+      <c r="N116" s="29"/>
+      <c r="O116" s="29"/>
+      <c r="P116" s="29"/>
+      <c r="Q116" s="29"/>
+      <c r="R116" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="S116" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="T116" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="U116" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="V116" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="W116" s="29"/>
+      <c r="X116" s="29"/>
+      <c r="Y116" s="31"/>
+      <c r="Z116" s="31"/>
+      <c r="AA116" s="31"/>
+      <c r="AB116" s="31"/>
+      <c r="AC116" s="31"/>
+      <c r="AD116" s="31"/>
+      <c r="AE116" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF116" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG116" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH116" s="29"/>
+      <c r="AI116" s="29"/>
+      <c r="AJ116" s="29"/>
+      <c r="AK116" s="29"/>
+      <c r="AL116" s="29"/>
+      <c r="AM116" s="29"/>
+      <c r="AN116" s="29"/>
+      <c r="AO116" s="29"/>
+      <c r="AP116" s="28"/>
+      <c r="AQ116" s="28"/>
+      <c r="AR116" s="29"/>
+      <c r="AS116" s="29"/>
+      <c r="AT116" s="29"/>
+      <c r="AU116" s="29"/>
+      <c r="AV116" s="29"/>
+      <c r="AW116" s="29"/>
+      <c r="AX116" s="15"/>
+      <c r="AY116" s="15"/>
+      <c r="AZ116" s="15"/>
+      <c r="BA116" s="15"/>
+      <c r="BB116" s="15"/>
+    </row>
+    <row r="117" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A117" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H117" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I117" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J117" s="29"/>
+      <c r="K117" s="29"/>
+      <c r="L117" s="29"/>
+      <c r="M117" s="29"/>
+      <c r="N117" s="29"/>
+      <c r="O117" s="29"/>
+      <c r="P117" s="29"/>
+      <c r="Q117" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R117" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="S117" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="T117" s="29"/>
+      <c r="U117" s="29"/>
+      <c r="V117" s="29"/>
+      <c r="W117" s="29"/>
+      <c r="X117" s="29"/>
+      <c r="Y117" s="31"/>
+      <c r="Z117" s="31"/>
+      <c r="AA117" s="31"/>
+      <c r="AB117" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC117" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD117" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE117" s="31"/>
+      <c r="AF117" s="31"/>
+      <c r="AG117" s="31"/>
+      <c r="AH117" s="29"/>
+      <c r="AI117" s="29"/>
+      <c r="AJ117" s="29"/>
+      <c r="AK117" s="29"/>
+      <c r="AL117" s="29"/>
+      <c r="AM117" s="29"/>
+      <c r="AN117" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO117" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP117" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ117" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR117" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS117" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT117" s="29"/>
+      <c r="AU117" s="29"/>
+      <c r="AV117" s="29"/>
+      <c r="AW117" s="29"/>
+      <c r="AX117" s="15"/>
+      <c r="AY117" s="15"/>
+      <c r="AZ117" s="15"/>
+      <c r="BA117" s="15"/>
+      <c r="BB117" s="15"/>
+    </row>
+    <row r="118" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A118" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="29"/>
+      <c r="J118" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K118" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L118" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M118" s="29"/>
+      <c r="N118" s="29"/>
+      <c r="O118" s="29"/>
+      <c r="P118" s="29"/>
+      <c r="Q118" s="29"/>
+      <c r="R118" s="29"/>
+      <c r="S118" s="29"/>
+      <c r="T118" s="29"/>
+      <c r="U118" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V118" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="W118" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="X118" s="29"/>
+      <c r="Y118" s="31"/>
+      <c r="Z118" s="31"/>
+      <c r="AA118" s="31"/>
+      <c r="AB118" s="31"/>
+      <c r="AC118" s="31"/>
+      <c r="AD118" s="31"/>
+      <c r="AE118" s="31"/>
+      <c r="AF118" s="31"/>
+      <c r="AG118" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH118" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI118" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ118" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK118" s="29"/>
+      <c r="AL118" s="29"/>
+      <c r="AM118" s="29"/>
+      <c r="AN118" s="29"/>
+      <c r="AO118" s="29"/>
+      <c r="AP118" s="28"/>
+      <c r="AQ118" s="28"/>
+      <c r="AR118" s="29"/>
+      <c r="AS118" s="29"/>
+      <c r="AT118" s="29"/>
+      <c r="AU118" s="29"/>
+      <c r="AV118" s="29"/>
+      <c r="AW118" s="29"/>
+      <c r="AX118" s="15"/>
+      <c r="AY118" s="15"/>
+      <c r="AZ118" s="15"/>
+      <c r="BA118" s="15"/>
+      <c r="BB118" s="15"/>
+    </row>
+    <row r="119" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A119" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="29"/>
+      <c r="J119" s="29"/>
+      <c r="K119" s="29"/>
+      <c r="L119" s="29"/>
+      <c r="M119" s="29"/>
+      <c r="N119" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="O119" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P119" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q119" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="R119" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="S119" s="29"/>
+      <c r="T119" s="29"/>
+      <c r="U119" s="29"/>
+      <c r="V119" s="29"/>
+      <c r="W119" s="29"/>
+      <c r="X119" s="29"/>
+      <c r="Y119" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z119" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA119" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB119" s="31"/>
+      <c r="AC119" s="31"/>
+      <c r="AD119" s="31"/>
+      <c r="AE119" s="31"/>
+      <c r="AF119" s="31"/>
+      <c r="AG119" s="31"/>
+      <c r="AH119" s="29"/>
+      <c r="AI119" s="29"/>
+      <c r="AJ119" s="29"/>
+      <c r="AK119" s="29"/>
+      <c r="AL119" s="29"/>
+      <c r="AM119" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN119" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO119" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP119" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ119" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR119" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS119" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT119" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU119" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV119" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW119" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX119" s="15"/>
+      <c r="AY119" s="15"/>
+      <c r="AZ119" s="15"/>
+      <c r="BA119" s="15"/>
+      <c r="BB119" s="15"/>
+    </row>
+    <row r="120" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A120" s="25"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+      <c r="Y120" s="3"/>
+      <c r="Z120" s="3"/>
+      <c r="AA120" s="3"/>
+      <c r="AB120" s="3"/>
+      <c r="AC120" s="3"/>
+      <c r="AD120" s="3"/>
+      <c r="AE120" s="3"/>
+      <c r="AF120" s="3"/>
+      <c r="AG120" s="3"/>
+      <c r="AH120" s="3"/>
+      <c r="AI120" s="3"/>
+      <c r="AJ120" s="3"/>
+      <c r="AK120" s="3"/>
+      <c r="AL120" s="3"/>
+      <c r="AM120" s="3"/>
+      <c r="AN120" s="26"/>
+      <c r="AO120" s="26"/>
+      <c r="AP120" s="24"/>
+      <c r="AQ120" s="24"/>
+      <c r="AR120" s="26"/>
+      <c r="AS120" s="26"/>
+      <c r="AT120" s="26"/>
+      <c r="AU120" s="26"/>
+      <c r="AV120" s="26"/>
+      <c r="AW120" s="26"/>
+      <c r="AX120" s="27"/>
+      <c r="AY120" s="27"/>
+      <c r="AZ120" s="27"/>
+      <c r="BA120" s="27"/>
+      <c r="BB120" s="27"/>
+    </row>
+    <row r="121" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A121" s="25"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
+      <c r="Y121" s="3"/>
+      <c r="Z121" s="3"/>
+      <c r="AA121" s="3"/>
+      <c r="AB121" s="3"/>
+      <c r="AC121" s="3"/>
+      <c r="AD121" s="3"/>
+      <c r="AE121" s="3"/>
+      <c r="AF121" s="3"/>
+      <c r="AG121" s="3"/>
+      <c r="AH121" s="3"/>
+      <c r="AI121" s="3"/>
+      <c r="AJ121" s="3"/>
+      <c r="AK121" s="3"/>
+      <c r="AL121" s="3"/>
+      <c r="AM121" s="3"/>
+      <c r="AN121" s="26"/>
+      <c r="AO121" s="26"/>
+      <c r="AP121" s="24"/>
+      <c r="AQ121" s="24"/>
+      <c r="AR121" s="26"/>
+      <c r="AS121" s="26"/>
+      <c r="AT121" s="26"/>
+      <c r="AU121" s="26"/>
+      <c r="AV121" s="26"/>
+      <c r="AW121" s="26"/>
+      <c r="AX121" s="27"/>
+      <c r="AY121" s="27"/>
+      <c r="AZ121" s="27"/>
+      <c r="BA121" s="27"/>
+      <c r="BB121" s="27"/>
+    </row>
+    <row r="122" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A122" s="11"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="13"/>
+      <c r="O122" s="13"/>
+      <c r="P122" s="13"/>
+      <c r="Q122" s="13"/>
+      <c r="R122" s="13"/>
+      <c r="S122" s="13"/>
+      <c r="T122" s="13"/>
+      <c r="U122" s="13"/>
+      <c r="V122" s="13"/>
+      <c r="W122" s="13"/>
+      <c r="X122" s="13"/>
+      <c r="Y122" s="13"/>
+      <c r="Z122" s="13"/>
+      <c r="AA122" s="13"/>
+      <c r="AB122" s="13"/>
+      <c r="AC122" s="13"/>
+      <c r="AD122" s="13"/>
+      <c r="AE122" s="13"/>
+      <c r="AF122" s="13"/>
+      <c r="AG122" s="13"/>
+      <c r="AH122" s="13"/>
+      <c r="AI122" s="13"/>
+      <c r="AJ122" s="13"/>
+      <c r="AK122" s="13"/>
+      <c r="AL122" s="13"/>
+      <c r="AM122" s="13"/>
+    </row>
+    <row r="123" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C123" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I123" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J123" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K123" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L123" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="M123" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="N123" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="O123" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="P123" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q123" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="R123" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="S123" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="T123" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="U123" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V123" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="W123" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="X123" s="8"/>
+      <c r="Y123" s="8"/>
+      <c r="Z123" s="8"/>
+      <c r="AA123" s="8"/>
+      <c r="AB123" s="8"/>
+      <c r="AC123" s="8"/>
+      <c r="AD123" s="8"/>
+      <c r="AE123" s="8"/>
+      <c r="AF123" s="8"/>
+      <c r="AG123" s="8"/>
+      <c r="AH123" s="8"/>
+      <c r="AI123" s="8"/>
+      <c r="AJ123" s="8"/>
+      <c r="AK123" s="8"/>
+      <c r="AL123" s="8"/>
+      <c r="AM123" s="8"/>
+    </row>
+    <row r="124" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="10"/>
+      <c r="O124" s="10"/>
+      <c r="P124" s="10"/>
+      <c r="Q124" s="10"/>
+      <c r="R124" s="10"/>
+      <c r="S124" s="10"/>
+      <c r="T124" s="10"/>
+      <c r="U124" s="10"/>
+      <c r="V124" s="10"/>
+      <c r="W124" s="10"/>
+      <c r="X124" s="10"/>
+      <c r="Y124" s="10"/>
+      <c r="Z124" s="10"/>
+      <c r="AA124" s="10"/>
+      <c r="AB124" s="10"/>
+      <c r="AC124" s="10"/>
+      <c r="AD124" s="10"/>
+      <c r="AE124" s="10"/>
+      <c r="AF124" s="10"/>
+      <c r="AG124" s="10"/>
+      <c r="AH124" s="10"/>
+      <c r="AI124" s="10"/>
+      <c r="AJ124" s="10"/>
+      <c r="AK124" s="10"/>
+      <c r="AL124" s="10"/>
+      <c r="AM124" s="10"/>
+    </row>
+    <row r="133" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="1"/>
+      <c r="W133" s="1"/>
+      <c r="X133" s="1"/>
+      <c r="Y133" s="1"/>
+      <c r="Z133" s="1"/>
+      <c r="AA133" s="1"/>
+      <c r="AB133" s="1"/>
+      <c r="AC133" s="1"/>
+      <c r="AD133" s="1"/>
+      <c r="AE133" s="1"/>
+      <c r="AF133" s="1"/>
+      <c r="AG133" s="1"/>
+      <c r="AH133" s="1"/>
+      <c r="AI133" s="1"/>
+      <c r="AJ133" s="1"/>
+      <c r="AK133" s="1"/>
+      <c r="AL133" s="1"/>
+      <c r="AM133" s="1"/>
+    </row>
+    <row r="134" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A134" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="56"/>
+      <c r="C134" s="56"/>
+      <c r="D134" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E134" s="57"/>
+      <c r="F134" s="57"/>
+      <c r="G134" s="57"/>
+      <c r="H134" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="I134" s="58"/>
+      <c r="J134" s="58"/>
+      <c r="K134" s="58"/>
+      <c r="L134" s="58"/>
+      <c r="M134" s="58"/>
+      <c r="N134" s="58"/>
+      <c r="O134" s="58"/>
+      <c r="P134" s="58"/>
+      <c r="Q134" s="58"/>
+      <c r="R134" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="S134" s="59"/>
+      <c r="T134" s="59"/>
+      <c r="U134" s="33"/>
+      <c r="V134" s="33"/>
+      <c r="W134" s="33"/>
+      <c r="X134" s="2"/>
+      <c r="Y134" s="2"/>
+      <c r="Z134" s="2"/>
+      <c r="AA134" s="2"/>
+      <c r="AB134" s="2"/>
+      <c r="AC134" s="2"/>
+      <c r="AD134" s="2"/>
+      <c r="AE134" s="2"/>
+      <c r="AF134" s="2"/>
+      <c r="AG134" s="2"/>
+      <c r="AH134" s="2"/>
+      <c r="AI134" s="2"/>
+      <c r="AJ134" s="2"/>
+      <c r="AK134" s="2"/>
+      <c r="AL134" s="2"/>
+      <c r="AM134" s="1"/>
+    </row>
+    <row r="135" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A135" s="56"/>
+      <c r="B135" s="56"/>
+      <c r="C135" s="56"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="57"/>
+      <c r="F135" s="57"/>
+      <c r="G135" s="57"/>
+      <c r="H135" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="I135" s="58"/>
+      <c r="J135" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="K135" s="58"/>
+      <c r="L135" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="M135" s="58"/>
+      <c r="N135" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="O135" s="58"/>
+      <c r="P135" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q135" s="58"/>
+      <c r="R135" s="59"/>
+      <c r="S135" s="59"/>
+      <c r="T135" s="59"/>
+      <c r="U135" s="33"/>
+      <c r="V135" s="33"/>
+      <c r="W135" s="33"/>
+      <c r="X135" s="1"/>
+      <c r="Y135" s="1"/>
+      <c r="Z135" s="1"/>
+      <c r="AA135" s="1"/>
+      <c r="AB135" s="1"/>
+      <c r="AC135" s="1"/>
+      <c r="AD135" s="1"/>
+      <c r="AE135" s="1"/>
+      <c r="AF135" s="1"/>
+      <c r="AG135" s="1"/>
+      <c r="AH135" s="1"/>
+      <c r="AI135" s="1"/>
+      <c r="AJ135" s="1"/>
+      <c r="AK135" s="1"/>
+      <c r="AL135" s="1"/>
+      <c r="AM135" s="1"/>
+    </row>
+    <row r="136" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A136" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" s="51"/>
+      <c r="C136" s="51"/>
+      <c r="D136" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136" s="51"/>
+      <c r="F136" s="51"/>
+      <c r="G136" s="51"/>
+      <c r="H136" s="51">
+        <v>5</v>
+      </c>
+      <c r="I136" s="51"/>
+      <c r="J136" s="51">
+        <v>1</v>
+      </c>
+      <c r="K136" s="51"/>
+      <c r="L136" s="51">
+        <v>3</v>
+      </c>
+      <c r="M136" s="51"/>
+      <c r="N136" s="51">
+        <v>1</v>
+      </c>
+      <c r="O136" s="51"/>
+      <c r="P136" s="51">
+        <v>4</v>
+      </c>
+      <c r="Q136" s="51"/>
+      <c r="R136" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="S136" s="52"/>
+      <c r="T136" s="52"/>
+      <c r="U136" s="34"/>
+      <c r="V136" s="34"/>
+      <c r="W136" s="34"/>
+      <c r="X136" s="1"/>
+      <c r="Y136" s="1"/>
+      <c r="Z136" s="1"/>
+      <c r="AA136" s="1"/>
+      <c r="AB136" s="1"/>
+      <c r="AC136" s="1"/>
+      <c r="AD136" s="1"/>
+      <c r="AE136" s="1"/>
+      <c r="AF136" s="1"/>
+      <c r="AG136" s="1"/>
+      <c r="AH136" s="1"/>
+      <c r="AI136" s="1"/>
+      <c r="AJ136" s="1"/>
+      <c r="AK136" s="1"/>
+      <c r="AL136" s="1"/>
+      <c r="AM136" s="1"/>
+    </row>
+    <row r="137" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A137" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" s="51"/>
+      <c r="C137" s="51"/>
+      <c r="D137" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137" s="51"/>
+      <c r="F137" s="51"/>
+      <c r="G137" s="51"/>
+      <c r="H137" s="51">
+        <v>2</v>
+      </c>
+      <c r="I137" s="51"/>
+      <c r="J137" s="51">
+        <v>3</v>
+      </c>
+      <c r="K137" s="51"/>
+      <c r="L137" s="51">
+        <v>3</v>
+      </c>
+      <c r="M137" s="51"/>
+      <c r="N137" s="51">
+        <v>2</v>
+      </c>
+      <c r="O137" s="51"/>
+      <c r="P137" s="51">
+        <v>2</v>
+      </c>
+      <c r="Q137" s="51"/>
+      <c r="R137" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="S137" s="52"/>
+      <c r="T137" s="52"/>
+      <c r="U137" s="34"/>
+      <c r="V137" s="34"/>
+      <c r="W137" s="34"/>
+      <c r="X137" s="1"/>
+      <c r="Y137" s="1"/>
+      <c r="Z137" s="1"/>
+      <c r="AA137" s="1"/>
+      <c r="AB137" s="1"/>
+      <c r="AC137" s="1"/>
+      <c r="AD137" s="1"/>
+      <c r="AE137" s="1"/>
+      <c r="AF137" s="1"/>
+      <c r="AG137" s="1"/>
+      <c r="AH137" s="1"/>
+      <c r="AI137" s="1"/>
+      <c r="AJ137" s="1"/>
+      <c r="AK137" s="1"/>
+      <c r="AL137" s="1"/>
+      <c r="AM137" s="1"/>
+    </row>
+    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A138" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="51"/>
+      <c r="C138" s="51"/>
+      <c r="D138" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" s="51"/>
+      <c r="F138" s="51"/>
+      <c r="G138" s="51"/>
+      <c r="H138" s="51">
+        <v>4</v>
+      </c>
+      <c r="I138" s="51"/>
+      <c r="J138" s="51">
+        <v>2</v>
+      </c>
+      <c r="K138" s="51"/>
+      <c r="L138" s="51">
+        <v>4</v>
+      </c>
+      <c r="M138" s="51"/>
+      <c r="N138" s="51">
+        <v>3</v>
+      </c>
+      <c r="O138" s="51"/>
+      <c r="P138" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="51"/>
+      <c r="R138" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="S138" s="52"/>
+      <c r="T138" s="52"/>
+      <c r="U138" s="34"/>
+      <c r="V138" s="34"/>
+      <c r="W138" s="34"/>
+      <c r="X138" s="1"/>
+      <c r="Y138" s="1"/>
+      <c r="Z138" s="1"/>
+      <c r="AA138" s="1"/>
+      <c r="AB138" s="1"/>
+      <c r="AC138" s="1"/>
+      <c r="AD138" s="1"/>
+      <c r="AE138" s="1"/>
+      <c r="AF138" s="1"/>
+      <c r="AG138" s="1"/>
+      <c r="AH138" s="1"/>
+      <c r="AI138" s="1"/>
+      <c r="AJ138" s="1"/>
+      <c r="AK138" s="1"/>
+      <c r="AL138" s="1"/>
+      <c r="AM138" s="1"/>
+    </row>
+    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A139" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" s="51"/>
+      <c r="C139" s="51"/>
+      <c r="D139" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E139" s="51"/>
+      <c r="F139" s="51"/>
+      <c r="G139" s="51"/>
+      <c r="H139" s="51">
+        <v>2</v>
+      </c>
+      <c r="I139" s="51"/>
+      <c r="J139" s="51">
+        <v>1</v>
+      </c>
+      <c r="K139" s="51"/>
+      <c r="L139" s="51">
+        <v>1</v>
+      </c>
+      <c r="M139" s="51"/>
+      <c r="N139" s="51">
+        <v>2</v>
+      </c>
+      <c r="O139" s="51"/>
+      <c r="P139" s="51">
+        <v>3</v>
+      </c>
+      <c r="Q139" s="51"/>
+      <c r="R139" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="S139" s="52"/>
+      <c r="T139" s="52"/>
+      <c r="U139" s="34"/>
+      <c r="V139" s="34"/>
+      <c r="W139" s="34"/>
+      <c r="X139" s="1"/>
+      <c r="Y139" s="1"/>
+      <c r="Z139" s="1"/>
+      <c r="AA139" s="1"/>
+      <c r="AB139" s="1"/>
+      <c r="AC139" s="1"/>
+      <c r="AD139" s="1"/>
+      <c r="AE139" s="1"/>
+      <c r="AF139" s="1"/>
+      <c r="AG139" s="1"/>
+      <c r="AH139" s="1"/>
+      <c r="AI139" s="1"/>
+      <c r="AJ139" s="1"/>
+      <c r="AK139" s="1"/>
+      <c r="AL139" s="1"/>
+      <c r="AM139" s="1"/>
+    </row>
+    <row r="140" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A140" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" s="51"/>
+      <c r="C140" s="51"/>
+      <c r="D140" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E140" s="51"/>
+      <c r="F140" s="51"/>
+      <c r="G140" s="51"/>
+      <c r="H140" s="51">
+        <v>3</v>
+      </c>
+      <c r="I140" s="51"/>
+      <c r="J140" s="51">
+        <v>2</v>
+      </c>
+      <c r="K140" s="51"/>
+      <c r="L140" s="51">
+        <v>4</v>
+      </c>
+      <c r="M140" s="51"/>
+      <c r="N140" s="51">
+        <v>5</v>
+      </c>
+      <c r="O140" s="51"/>
+      <c r="P140" s="51">
+        <v>4</v>
+      </c>
+      <c r="Q140" s="51"/>
+      <c r="R140" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="S140" s="52"/>
+      <c r="T140" s="52"/>
+      <c r="U140" s="34"/>
+      <c r="V140" s="34"/>
+      <c r="W140" s="34"/>
+      <c r="X140" s="1"/>
+      <c r="Y140" s="1"/>
+      <c r="Z140" s="1"/>
+      <c r="AA140" s="1"/>
+      <c r="AB140" s="1"/>
+      <c r="AC140" s="1"/>
+      <c r="AD140" s="1"/>
+      <c r="AE140" s="1"/>
+      <c r="AF140" s="1"/>
+      <c r="AG140" s="1"/>
+      <c r="AH140" s="1"/>
+      <c r="AI140" s="1"/>
+      <c r="AJ140" s="1"/>
+      <c r="AK140" s="1"/>
+      <c r="AL140" s="1"/>
+      <c r="AM140" s="1"/>
+    </row>
+    <row r="141" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A141" s="50"/>
+      <c r="B141" s="50"/>
+      <c r="C141" s="50"/>
+      <c r="D141" s="51"/>
+      <c r="E141" s="51"/>
+      <c r="F141" s="51"/>
+      <c r="G141" s="51"/>
+      <c r="H141" s="50"/>
+      <c r="I141" s="50"/>
+      <c r="J141" s="50"/>
+      <c r="K141" s="50"/>
+      <c r="L141" s="50"/>
+      <c r="M141" s="50"/>
+      <c r="N141" s="50"/>
+      <c r="O141" s="50"/>
+      <c r="P141" s="50"/>
+      <c r="Q141" s="50"/>
+      <c r="R141" s="52"/>
+      <c r="S141" s="52"/>
+      <c r="T141" s="52"/>
+      <c r="U141" s="34"/>
+      <c r="V141" s="34"/>
+      <c r="W141" s="34"/>
+      <c r="X141" s="1"/>
+      <c r="Y141" s="1"/>
+      <c r="Z141" s="1"/>
+      <c r="AA141" s="1"/>
+      <c r="AB141" s="1"/>
+      <c r="AC141" s="1"/>
+      <c r="AD141" s="1"/>
+      <c r="AE141" s="1"/>
+      <c r="AF141" s="1"/>
+      <c r="AG141" s="1"/>
+      <c r="AH141" s="1"/>
+      <c r="AI141" s="1"/>
+      <c r="AJ141" s="1"/>
+      <c r="AK141" s="1"/>
+      <c r="AL141" s="1"/>
+      <c r="AM141" s="1"/>
+    </row>
+    <row r="142" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A142" s="50"/>
+      <c r="B142" s="50"/>
+      <c r="C142" s="50"/>
+      <c r="D142" s="51"/>
+      <c r="E142" s="51"/>
+      <c r="F142" s="51"/>
+      <c r="G142" s="51"/>
+      <c r="H142" s="50"/>
+      <c r="I142" s="50"/>
+      <c r="J142" s="50"/>
+      <c r="K142" s="50"/>
+      <c r="L142" s="50"/>
+      <c r="M142" s="50"/>
+      <c r="N142" s="50"/>
+      <c r="O142" s="50"/>
+      <c r="P142" s="50"/>
+      <c r="Q142" s="50"/>
+      <c r="R142" s="52"/>
+      <c r="S142" s="52"/>
+      <c r="T142" s="52"/>
+      <c r="U142" s="34"/>
+      <c r="V142" s="34"/>
+      <c r="W142" s="34"/>
+      <c r="X142" s="1"/>
+      <c r="Y142" s="1"/>
+      <c r="Z142" s="1"/>
+      <c r="AA142" s="1"/>
+      <c r="AB142" s="1"/>
+      <c r="AC142" s="1"/>
+      <c r="AD142" s="1"/>
+      <c r="AE142" s="1"/>
+      <c r="AF142" s="1"/>
+      <c r="AG142" s="1"/>
+      <c r="AH142" s="1"/>
+      <c r="AI142" s="1"/>
+      <c r="AJ142" s="1"/>
+      <c r="AK142" s="1"/>
+      <c r="AL142" s="1"/>
+      <c r="AM142" s="1"/>
+    </row>
+    <row r="143" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A143" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143" s="48"/>
+      <c r="D143" s="48"/>
+      <c r="E143" s="48"/>
+      <c r="F143" s="48"/>
+      <c r="G143" s="48"/>
+      <c r="H143" s="48"/>
+      <c r="I143" s="48"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+      <c r="T143" s="1"/>
+      <c r="U143" s="1"/>
+      <c r="V143" s="1"/>
+      <c r="W143" s="1"/>
+      <c r="X143" s="1"/>
+      <c r="Y143" s="1"/>
+      <c r="Z143" s="1"/>
+      <c r="AA143" s="1"/>
+      <c r="AB143" s="1"/>
+      <c r="AC143" s="1"/>
+      <c r="AD143" s="1"/>
+      <c r="AE143" s="1"/>
+      <c r="AF143" s="1"/>
+      <c r="AG143" s="1"/>
+      <c r="AH143" s="1"/>
+      <c r="AI143" s="1"/>
+      <c r="AJ143" s="1"/>
+      <c r="AK143" s="1"/>
+      <c r="AL143" s="1"/>
+      <c r="AM143" s="1"/>
+    </row>
+    <row r="144" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A144" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C144" s="48"/>
+      <c r="D144" s="48"/>
+      <c r="E144" s="48"/>
+      <c r="F144" s="48"/>
+      <c r="G144" s="48"/>
+      <c r="H144" s="48"/>
+      <c r="I144" s="48"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="T144" s="1"/>
+      <c r="U144" s="1"/>
+      <c r="V144" s="1"/>
+      <c r="W144" s="1"/>
+      <c r="X144" s="1"/>
+      <c r="Y144" s="1"/>
+      <c r="Z144" s="1"/>
+      <c r="AA144" s="1"/>
+      <c r="AB144" s="1"/>
+      <c r="AC144" s="1"/>
+      <c r="AD144" s="1"/>
+      <c r="AE144" s="1"/>
+      <c r="AF144" s="1"/>
+      <c r="AG144" s="1"/>
+      <c r="AH144" s="1"/>
+      <c r="AI144" s="1"/>
+      <c r="AJ144" s="1"/>
+      <c r="AK144" s="1"/>
+      <c r="AL144" s="1"/>
+      <c r="AM144" s="1"/>
+    </row>
+    <row r="145" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E145" s="55"/>
+      <c r="F145" s="55"/>
+      <c r="G145" s="55"/>
+      <c r="H145" s="55"/>
+      <c r="I145" s="55"/>
+      <c r="J145" s="55"/>
+      <c r="K145" s="55"/>
+      <c r="L145" s="55"/>
+      <c r="M145" s="55"/>
+      <c r="N145" s="55"/>
+      <c r="O145" s="55"/>
+      <c r="P145" s="55"/>
+      <c r="Q145" s="55"/>
+      <c r="R145" s="55"/>
+      <c r="S145" s="55"/>
+      <c r="T145" s="55"/>
+      <c r="U145" s="55"/>
+      <c r="V145" s="55"/>
+      <c r="W145" s="55"/>
+      <c r="X145" s="55"/>
+      <c r="Y145" s="55"/>
+      <c r="Z145" s="55"/>
+      <c r="AA145" s="55"/>
+      <c r="AB145" s="55"/>
+      <c r="AC145" s="55"/>
+      <c r="AD145" s="55"/>
+      <c r="AE145" s="55"/>
+      <c r="AF145" s="55"/>
+      <c r="AG145" s="55"/>
+      <c r="AH145" s="55"/>
+      <c r="AI145" s="55"/>
+      <c r="AJ145" s="55"/>
+      <c r="AK145" s="55"/>
+      <c r="AL145" s="55"/>
+      <c r="AM145" s="55"/>
+    </row>
+    <row r="146" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A146" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="30">
+        <v>1</v>
+      </c>
+      <c r="C146" s="30">
+        <v>2</v>
+      </c>
+      <c r="D146" s="30">
+        <v>3</v>
+      </c>
+      <c r="E146" s="30">
+        <v>4</v>
+      </c>
+      <c r="F146" s="29">
+        <v>5</v>
+      </c>
+      <c r="G146" s="29">
+        <v>6</v>
+      </c>
+      <c r="H146" s="29">
+        <v>7</v>
+      </c>
+      <c r="I146" s="29">
+        <v>8</v>
+      </c>
+      <c r="J146" s="29">
+        <v>9</v>
+      </c>
+      <c r="K146" s="29">
+        <v>10</v>
+      </c>
+      <c r="L146" s="29">
+        <v>11</v>
+      </c>
+      <c r="M146" s="29">
+        <v>12</v>
+      </c>
+      <c r="N146" s="29">
+        <v>13</v>
+      </c>
+      <c r="O146" s="29">
+        <v>14</v>
+      </c>
+      <c r="P146" s="29">
+        <v>15</v>
+      </c>
+      <c r="Q146" s="29">
+        <v>16</v>
+      </c>
+      <c r="R146" s="29">
+        <v>17</v>
+      </c>
+      <c r="S146" s="29">
+        <v>18</v>
+      </c>
+      <c r="T146" s="29">
+        <v>19</v>
+      </c>
+      <c r="U146" s="29">
+        <v>20</v>
+      </c>
+      <c r="V146" s="29">
+        <v>21</v>
+      </c>
+      <c r="W146" s="29">
+        <v>22</v>
+      </c>
+      <c r="X146" s="29">
+        <v>23</v>
+      </c>
+      <c r="Y146" s="31">
+        <v>24</v>
+      </c>
+      <c r="Z146" s="31">
+        <v>25</v>
+      </c>
+      <c r="AA146" s="31">
+        <v>26</v>
+      </c>
+      <c r="AB146" s="31">
+        <v>27</v>
+      </c>
+      <c r="AC146" s="31">
+        <v>28</v>
+      </c>
+      <c r="AD146" s="31">
+        <v>29</v>
+      </c>
+      <c r="AE146" s="31">
+        <v>30</v>
+      </c>
+      <c r="AF146" s="31">
+        <v>31</v>
+      </c>
+      <c r="AG146" s="31">
         <v>32</v>
       </c>
-      <c r="D90" s="40" t="s">
+      <c r="AH146" s="29">
+        <v>33</v>
+      </c>
+      <c r="AI146" s="29">
+        <v>34</v>
+      </c>
+      <c r="AJ146" s="29">
+        <v>35</v>
+      </c>
+      <c r="AK146" s="29">
+        <v>36</v>
+      </c>
+      <c r="AL146" s="29">
+        <v>37</v>
+      </c>
+      <c r="AM146" s="28">
+        <v>38</v>
+      </c>
+      <c r="AN146" s="28">
+        <v>39</v>
+      </c>
+      <c r="AO146" s="29">
+        <v>40</v>
+      </c>
+      <c r="AP146" s="31">
+        <v>41</v>
+      </c>
+      <c r="AQ146" s="29">
+        <v>42</v>
+      </c>
+      <c r="AR146" s="29">
+        <v>43</v>
+      </c>
+      <c r="AS146" s="29">
+        <v>44</v>
+      </c>
+      <c r="AT146" s="29">
+        <v>45</v>
+      </c>
+      <c r="AU146" s="29">
+        <v>46</v>
+      </c>
+      <c r="AV146" s="29">
+        <v>47</v>
+      </c>
+      <c r="AW146" s="29">
+        <v>48</v>
+      </c>
+      <c r="AX146" s="29">
+        <v>49</v>
+      </c>
+      <c r="AY146" s="29">
+        <v>50</v>
+      </c>
+      <c r="AZ146" s="29">
+        <v>51</v>
+      </c>
+      <c r="BA146" s="29">
+        <v>52</v>
+      </c>
+      <c r="BB146" s="29">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="147" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A147" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="40" t="s">
+      <c r="B147" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C147" s="29"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="29"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="29"/>
+      <c r="I147" s="29"/>
+      <c r="J147" s="16"/>
+      <c r="K147" s="16"/>
+      <c r="L147" s="16"/>
+      <c r="M147" s="16"/>
+      <c r="N147" s="16"/>
+      <c r="O147" s="29"/>
+      <c r="P147" s="29"/>
+      <c r="Q147" s="29"/>
+      <c r="R147" s="29"/>
+      <c r="S147" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="T147" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="U147" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V147" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="W147" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="X147" s="29"/>
+      <c r="Y147" s="29"/>
+      <c r="Z147" s="29"/>
+      <c r="AA147" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB147" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC147" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD147" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE147" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF147" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG147" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH147" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI147" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ147" s="29"/>
+      <c r="AK147" s="29"/>
+      <c r="AL147" s="29"/>
+      <c r="AM147" s="28"/>
+      <c r="AN147" s="28"/>
+      <c r="AO147" s="29"/>
+      <c r="AP147" s="31"/>
+      <c r="AQ147" s="29"/>
+      <c r="AR147" s="29"/>
+      <c r="AS147" s="29"/>
+      <c r="AT147" s="29"/>
+      <c r="AU147" s="29"/>
+      <c r="AV147" s="29"/>
+      <c r="AW147" s="29"/>
+      <c r="AX147" s="29"/>
+      <c r="AY147" s="29"/>
+      <c r="AZ147" s="29"/>
+      <c r="BA147" s="29"/>
+      <c r="BB147" s="29"/>
+    </row>
+    <row r="148" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A148" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F90" s="40" t="s">
+      <c r="B148" s="29"/>
+      <c r="C148" s="29"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="29"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="29"/>
+      <c r="I148" s="29"/>
+      <c r="J148" s="31"/>
+      <c r="K148" s="29"/>
+      <c r="L148" s="29"/>
+      <c r="M148" s="29"/>
+      <c r="N148" s="29"/>
+      <c r="O148" s="29"/>
+      <c r="P148" s="29"/>
+      <c r="Q148" s="29"/>
+      <c r="R148" s="29"/>
+      <c r="S148" s="29"/>
+      <c r="T148" s="29"/>
+      <c r="U148" s="29"/>
+      <c r="V148" s="29"/>
+      <c r="W148" s="29"/>
+      <c r="X148" s="29"/>
+      <c r="Y148" s="31"/>
+      <c r="Z148" s="29"/>
+      <c r="AA148" s="29"/>
+      <c r="AB148" s="29"/>
+      <c r="AC148" s="31"/>
+      <c r="AD148" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE148" s="31"/>
+      <c r="AF148" s="31"/>
+      <c r="AG148" s="31"/>
+      <c r="AH148" s="29"/>
+      <c r="AI148" s="29"/>
+      <c r="AJ148" s="29"/>
+      <c r="AK148" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL148" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM148" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN148" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO148" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP148" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ148" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR148" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS148" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT148" s="29"/>
+      <c r="AU148" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV148" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW148" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX148" s="29"/>
+      <c r="AY148" s="29"/>
+      <c r="AZ148" s="29"/>
+      <c r="BA148" s="29"/>
+      <c r="BB148" s="29"/>
+    </row>
+    <row r="149" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A149" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7" t="s">
+      <c r="B149" s="29"/>
+      <c r="C149" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E149" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F149" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G149" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H149" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I149" s="29"/>
+      <c r="J149" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K149" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L149" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M149" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N149" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O149" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="P149" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q149" s="31"/>
+      <c r="R149" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S149" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="T149" s="31"/>
+      <c r="U149" s="29"/>
+      <c r="V149" s="29"/>
+      <c r="W149" s="29"/>
+      <c r="X149" s="29"/>
+      <c r="Y149" s="31"/>
+      <c r="Z149" s="31"/>
+      <c r="AA149" s="31"/>
+      <c r="AB149" s="31"/>
+      <c r="AC149" s="31"/>
+      <c r="AD149" s="31"/>
+      <c r="AE149" s="31"/>
+      <c r="AF149" s="31"/>
+      <c r="AG149" s="31"/>
+      <c r="AH149" s="29"/>
+      <c r="AI149" s="29"/>
+      <c r="AJ149" s="29"/>
+      <c r="AK149" s="29"/>
+      <c r="AL149" s="29"/>
+      <c r="AM149" s="28"/>
+      <c r="AN149" s="28"/>
+      <c r="AO149" s="29"/>
+      <c r="AP149" s="31"/>
+      <c r="AQ149" s="29"/>
+      <c r="AR149" s="29"/>
+      <c r="AS149" s="29"/>
+      <c r="AT149" s="29"/>
+      <c r="AU149" s="29"/>
+      <c r="AV149" s="29"/>
+      <c r="AW149" s="29"/>
+      <c r="AX149" s="29"/>
+      <c r="AY149" s="29"/>
+      <c r="AZ149" s="29"/>
+      <c r="BA149" s="29"/>
+      <c r="BB149" s="29"/>
+    </row>
+    <row r="150" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A150" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I90" s="7" t="s">
+      <c r="B150" s="29"/>
+      <c r="C150" s="29"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="29"/>
+      <c r="F150" s="31"/>
+      <c r="G150" s="31"/>
+      <c r="H150" s="31"/>
+      <c r="I150" s="31"/>
+      <c r="J150" s="31"/>
+      <c r="K150" s="29"/>
+      <c r="L150" s="29"/>
+      <c r="M150" s="29"/>
+      <c r="N150" s="29"/>
+      <c r="O150" s="29"/>
+      <c r="P150" s="29"/>
+      <c r="Q150" s="29"/>
+      <c r="R150" s="29"/>
+      <c r="S150" s="29"/>
+      <c r="T150" s="29"/>
+      <c r="U150" s="29"/>
+      <c r="V150" s="29"/>
+      <c r="W150" s="29"/>
+      <c r="X150" s="29"/>
+      <c r="Y150" s="29"/>
+      <c r="Z150" s="31"/>
+      <c r="AA150" s="31"/>
+      <c r="AB150" s="31"/>
+      <c r="AC150" s="31"/>
+      <c r="AD150" s="31"/>
+      <c r="AE150" s="31"/>
+      <c r="AF150" s="31"/>
+      <c r="AG150" s="31"/>
+      <c r="AH150" s="29"/>
+      <c r="AI150" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ150" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK150" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL150" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM150" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN150" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO150" s="31"/>
+      <c r="AP150" s="31"/>
+      <c r="AQ150" s="31"/>
+      <c r="AR150" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS150" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT150" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU150" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV150" s="29"/>
+      <c r="AW150" s="29"/>
+      <c r="AX150" s="29"/>
+      <c r="AY150" s="29"/>
+      <c r="AZ150" s="29"/>
+      <c r="BA150" s="29"/>
+      <c r="BB150" s="29"/>
+    </row>
+    <row r="151" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A151" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" s="29"/>
+      <c r="C151" s="29"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="29"/>
+      <c r="F151" s="29"/>
+      <c r="G151" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H151" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I151" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J151" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K151" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L151" s="29"/>
+      <c r="M151" s="29"/>
+      <c r="N151" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="O151" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P151" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q151" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R151" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="S151" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="T151" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="U151" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="V151" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="W151" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="X151" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y151" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z151" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA151" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB151" s="29"/>
+      <c r="AC151" s="29"/>
+      <c r="AD151" s="29"/>
+      <c r="AE151" s="29"/>
+      <c r="AF151" s="29"/>
+      <c r="AG151" s="31"/>
+      <c r="AH151" s="29"/>
+      <c r="AI151" s="29"/>
+      <c r="AJ151" s="29"/>
+      <c r="AK151" s="29"/>
+      <c r="AL151" s="29"/>
+      <c r="AM151" s="28"/>
+      <c r="AN151" s="28"/>
+      <c r="AO151" s="29"/>
+      <c r="AP151" s="31"/>
+      <c r="AQ151" s="29"/>
+      <c r="AR151" s="29"/>
+      <c r="AS151" s="29"/>
+      <c r="AT151" s="29"/>
+      <c r="AU151" s="29"/>
+      <c r="AV151" s="29"/>
+      <c r="AW151" s="29"/>
+      <c r="AX151" s="29"/>
+      <c r="AY151" s="29"/>
+      <c r="AZ151" s="29"/>
+      <c r="BA151" s="29"/>
+      <c r="BB151" s="29"/>
+    </row>
+    <row r="152" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A152" s="25"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="31"/>
+      <c r="F152" s="31"/>
+      <c r="G152" s="31"/>
+      <c r="H152" s="31"/>
+      <c r="I152" s="31"/>
+      <c r="J152" s="31"/>
+      <c r="K152" s="31"/>
+      <c r="L152" s="31"/>
+      <c r="M152" s="31"/>
+      <c r="N152" s="31"/>
+      <c r="O152" s="31"/>
+      <c r="P152" s="31"/>
+      <c r="Q152" s="31"/>
+      <c r="R152" s="31"/>
+      <c r="S152" s="31"/>
+      <c r="T152" s="31"/>
+      <c r="U152" s="31"/>
+      <c r="V152" s="31"/>
+      <c r="W152" s="31"/>
+      <c r="X152" s="31"/>
+      <c r="Y152" s="31"/>
+      <c r="Z152" s="31"/>
+      <c r="AA152" s="31"/>
+      <c r="AB152" s="31"/>
+      <c r="AC152" s="31"/>
+      <c r="AD152" s="31"/>
+      <c r="AE152" s="31"/>
+      <c r="AF152" s="31"/>
+      <c r="AG152" s="31"/>
+      <c r="AH152" s="31"/>
+      <c r="AI152" s="31"/>
+      <c r="AJ152" s="31"/>
+      <c r="AK152" s="31"/>
+      <c r="AL152" s="31"/>
+      <c r="AM152" s="28"/>
+      <c r="AN152" s="28"/>
+      <c r="AO152" s="31"/>
+      <c r="AP152" s="31"/>
+      <c r="AQ152" s="31"/>
+      <c r="AR152" s="31"/>
+      <c r="AS152" s="31"/>
+      <c r="AT152" s="31"/>
+      <c r="AU152" s="31"/>
+      <c r="AV152" s="31"/>
+      <c r="AW152" s="31"/>
+      <c r="AX152" s="31"/>
+      <c r="AY152" s="31"/>
+      <c r="AZ152" s="31"/>
+      <c r="BA152" s="31"/>
+      <c r="BB152" s="31"/>
+    </row>
+    <row r="153" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A153" s="25"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="31"/>
+      <c r="D153" s="31"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="31"/>
+      <c r="G153" s="31"/>
+      <c r="H153" s="31"/>
+      <c r="I153" s="31"/>
+      <c r="J153" s="31"/>
+      <c r="K153" s="31"/>
+      <c r="L153" s="31"/>
+      <c r="M153" s="31"/>
+      <c r="N153" s="31"/>
+      <c r="O153" s="31"/>
+      <c r="P153" s="31"/>
+      <c r="Q153" s="31"/>
+      <c r="R153" s="31"/>
+      <c r="S153" s="31"/>
+      <c r="T153" s="31"/>
+      <c r="U153" s="31"/>
+      <c r="V153" s="31"/>
+      <c r="W153" s="31"/>
+      <c r="X153" s="31"/>
+      <c r="Y153" s="31"/>
+      <c r="Z153" s="31"/>
+      <c r="AA153" s="31"/>
+      <c r="AB153" s="31"/>
+      <c r="AC153" s="31"/>
+      <c r="AD153" s="31"/>
+      <c r="AE153" s="31"/>
+      <c r="AF153" s="31"/>
+      <c r="AG153" s="31"/>
+      <c r="AH153" s="31"/>
+      <c r="AI153" s="31"/>
+      <c r="AJ153" s="31"/>
+      <c r="AK153" s="31"/>
+      <c r="AL153" s="31"/>
+      <c r="AM153" s="28"/>
+      <c r="AN153" s="28"/>
+      <c r="AO153" s="31"/>
+      <c r="AP153" s="31"/>
+      <c r="AQ153" s="31"/>
+      <c r="AR153" s="31"/>
+      <c r="AS153" s="31"/>
+      <c r="AT153" s="31"/>
+      <c r="AU153" s="31"/>
+      <c r="AV153" s="31"/>
+      <c r="AW153" s="31"/>
+      <c r="AX153" s="31"/>
+      <c r="AY153" s="31"/>
+      <c r="AZ153" s="31"/>
+      <c r="BA153" s="31"/>
+      <c r="BB153" s="31"/>
+    </row>
+    <row r="154" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A154" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="14"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I154" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J154" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K154" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L154" s="7"/>
+      <c r="M154" s="7"/>
+      <c r="N154" s="8"/>
+      <c r="O154" s="8"/>
+      <c r="P154" s="8"/>
+      <c r="Q154" s="8"/>
+      <c r="R154" s="8"/>
+      <c r="S154" s="8"/>
+      <c r="T154" s="8"/>
+      <c r="U154" s="8"/>
+      <c r="V154" s="8"/>
+      <c r="W154" s="8"/>
+      <c r="X154" s="8"/>
+      <c r="Y154" s="8"/>
+      <c r="Z154" s="8"/>
+      <c r="AA154" s="8"/>
+      <c r="AB154" s="8"/>
+      <c r="AC154" s="8"/>
+      <c r="AD154" s="8"/>
+      <c r="AE154" s="8"/>
+      <c r="AF154" s="8"/>
+      <c r="AG154" s="8"/>
+      <c r="AH154" s="8"/>
+      <c r="AI154" s="8"/>
+      <c r="AJ154" s="8"/>
+      <c r="AK154" s="8"/>
+      <c r="AL154" s="8"/>
+      <c r="AM154" s="8"/>
+    </row>
+    <row r="155" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="14"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H155" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I155" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
+      <c r="M155" s="9"/>
+      <c r="N155" s="10"/>
+      <c r="O155" s="10"/>
+      <c r="P155" s="10"/>
+      <c r="Q155" s="10"/>
+      <c r="R155" s="10"/>
+      <c r="S155" s="10"/>
+      <c r="T155" s="10"/>
+      <c r="U155" s="10"/>
+      <c r="V155" s="10"/>
+      <c r="W155" s="10"/>
+      <c r="X155" s="10"/>
+      <c r="Y155" s="10"/>
+      <c r="Z155" s="10"/>
+      <c r="AA155" s="10"/>
+      <c r="AB155" s="10"/>
+      <c r="AC155" s="10"/>
+      <c r="AD155" s="10"/>
+      <c r="AE155" s="10"/>
+      <c r="AF155" s="10"/>
+      <c r="AG155" s="10"/>
+      <c r="AH155" s="10"/>
+      <c r="AI155" s="10"/>
+      <c r="AJ155" s="10"/>
+      <c r="AK155" s="10"/>
+      <c r="AL155" s="10"/>
+      <c r="AM155" s="10"/>
+    </row>
+    <row r="156" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="14"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J90" s="7" t="s">
+      <c r="G156" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H156" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J156" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="K156" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L156" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M156" s="9"/>
+      <c r="N156" s="10"/>
+      <c r="O156" s="10"/>
+      <c r="P156" s="10"/>
+      <c r="Q156" s="10"/>
+      <c r="R156" s="10"/>
+      <c r="S156" s="10"/>
+      <c r="T156" s="10"/>
+      <c r="U156" s="10"/>
+      <c r="V156" s="10"/>
+      <c r="W156" s="10"/>
+      <c r="X156" s="10"/>
+      <c r="Y156" s="10"/>
+      <c r="Z156" s="10"/>
+      <c r="AA156" s="10"/>
+      <c r="AB156" s="10"/>
+      <c r="AC156" s="10"/>
+      <c r="AD156" s="10"/>
+      <c r="AE156" s="10"/>
+      <c r="AF156" s="10"/>
+      <c r="AG156" s="10"/>
+      <c r="AH156" s="10"/>
+      <c r="AI156" s="10"/>
+      <c r="AJ156" s="10"/>
+      <c r="AK156" s="10"/>
+      <c r="AL156" s="10"/>
+      <c r="AM156" s="10"/>
+    </row>
+    <row r="167" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A167" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="56"/>
+      <c r="C167" s="56"/>
+      <c r="D167" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E167" s="57"/>
+      <c r="F167" s="57"/>
+      <c r="G167" s="57"/>
+      <c r="H167" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="I167" s="58"/>
+      <c r="J167" s="58"/>
+      <c r="K167" s="58"/>
+      <c r="L167" s="58"/>
+      <c r="M167" s="58"/>
+      <c r="N167" s="58"/>
+      <c r="O167" s="58"/>
+      <c r="P167" s="58"/>
+      <c r="Q167" s="58"/>
+      <c r="R167" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="S167" s="56"/>
+      <c r="T167" s="56"/>
+      <c r="U167" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="V167" s="59"/>
+      <c r="W167" s="59"/>
+      <c r="X167" s="2"/>
+      <c r="Y167" s="2"/>
+      <c r="AF167" s="2"/>
+      <c r="AG167" s="2"/>
+      <c r="AH167" s="2"/>
+      <c r="AI167" s="2"/>
+      <c r="AJ167" s="2"/>
+      <c r="AK167" s="2"/>
+      <c r="AL167" s="2"/>
+      <c r="AM167" s="1"/>
+    </row>
+    <row r="168" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A168" s="56"/>
+      <c r="B168" s="56"/>
+      <c r="C168" s="56"/>
+      <c r="D168" s="57"/>
+      <c r="E168" s="57"/>
+      <c r="F168" s="57"/>
+      <c r="G168" s="57"/>
+      <c r="H168" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="I168" s="58"/>
+      <c r="J168" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="K168" s="58"/>
+      <c r="L168" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="M168" s="58"/>
+      <c r="N168" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="O168" s="58"/>
+      <c r="P168" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q168" s="58"/>
+      <c r="R168" s="56"/>
+      <c r="S168" s="56"/>
+      <c r="T168" s="56"/>
+      <c r="U168" s="59"/>
+      <c r="V168" s="59"/>
+      <c r="W168" s="59"/>
+      <c r="X168" s="1"/>
+      <c r="Y168" s="1"/>
+      <c r="AF168" s="1"/>
+      <c r="AG168" s="1"/>
+      <c r="AH168" s="1"/>
+      <c r="AI168" s="1"/>
+      <c r="AJ168" s="1"/>
+      <c r="AK168" s="1"/>
+      <c r="AL168" s="1"/>
+      <c r="AM168" s="1"/>
+    </row>
+    <row r="169" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A169" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" s="50"/>
+      <c r="C169" s="50"/>
+      <c r="D169" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E169" s="51"/>
+      <c r="F169" s="51"/>
+      <c r="G169" s="51"/>
+      <c r="H169" s="53">
+        <v>5</v>
+      </c>
+      <c r="I169" s="53"/>
+      <c r="J169" s="53">
+        <v>1</v>
+      </c>
+      <c r="K169" s="53"/>
+      <c r="L169" s="53">
+        <v>3</v>
+      </c>
+      <c r="M169" s="53"/>
+      <c r="N169" s="53">
+        <v>1</v>
+      </c>
+      <c r="O169" s="53"/>
+      <c r="P169" s="54">
+        <v>4</v>
+      </c>
+      <c r="Q169" s="54"/>
+      <c r="R169" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="S169" s="50"/>
+      <c r="T169" s="50"/>
+      <c r="U169" s="52">
+        <f>SUM(H169,L169,P169)-1-2-2-3-4</f>
+        <v>0</v>
+      </c>
+      <c r="V169" s="52"/>
+      <c r="W169" s="52"/>
+      <c r="X169" s="1"/>
+      <c r="Y169" s="1"/>
+      <c r="AF169" s="1"/>
+      <c r="AG169" s="1"/>
+      <c r="AH169" s="1"/>
+      <c r="AI169" s="1"/>
+      <c r="AJ169" s="1"/>
+      <c r="AK169" s="1"/>
+      <c r="AL169" s="1"/>
+      <c r="AM169" s="1"/>
+    </row>
+    <row r="170" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A170" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170" s="50"/>
+      <c r="C170" s="50"/>
+      <c r="D170" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170" s="51"/>
+      <c r="F170" s="51"/>
+      <c r="G170" s="51"/>
+      <c r="H170" s="53">
+        <v>2</v>
+      </c>
+      <c r="I170" s="53"/>
+      <c r="J170" s="53">
+        <v>3</v>
+      </c>
+      <c r="K170" s="53"/>
+      <c r="L170" s="53">
+        <v>3</v>
+      </c>
+      <c r="M170" s="53"/>
+      <c r="N170" s="53">
+        <v>2</v>
+      </c>
+      <c r="O170" s="53"/>
+      <c r="P170" s="53">
+        <v>2</v>
+      </c>
+      <c r="Q170" s="53"/>
+      <c r="R170" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="S170" s="50"/>
+      <c r="T170" s="50"/>
+      <c r="U170" s="52">
+        <f>SUM(H170,L170,P170)-1-1-2-1-2</f>
+        <v>0</v>
+      </c>
+      <c r="V170" s="52"/>
+      <c r="W170" s="52"/>
+      <c r="X170" s="1"/>
+      <c r="Y170" s="1"/>
+      <c r="AF170" s="1"/>
+      <c r="AG170" s="1"/>
+      <c r="AH170" s="1"/>
+      <c r="AI170" s="1"/>
+      <c r="AJ170" s="1"/>
+      <c r="AK170" s="1"/>
+      <c r="AL170" s="1"/>
+      <c r="AM170" s="1"/>
+    </row>
+    <row r="171" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A171" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="K90" s="7" t="s">
+      <c r="B171" s="50"/>
+      <c r="C171" s="50"/>
+      <c r="D171" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E171" s="51"/>
+      <c r="F171" s="51"/>
+      <c r="G171" s="51"/>
+      <c r="H171" s="53">
+        <v>4</v>
+      </c>
+      <c r="I171" s="53"/>
+      <c r="J171" s="53">
+        <v>2</v>
+      </c>
+      <c r="K171" s="53"/>
+      <c r="L171" s="53">
+        <v>4</v>
+      </c>
+      <c r="M171" s="53"/>
+      <c r="N171" s="53">
+        <v>3</v>
+      </c>
+      <c r="O171" s="53"/>
+      <c r="P171" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q171" s="53"/>
+      <c r="R171" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S171" s="50"/>
+      <c r="T171" s="50"/>
+      <c r="U171" s="52">
+        <f>SUM(H171,L171,P171)-1-3-4-1</f>
+        <v>0</v>
+      </c>
+      <c r="V171" s="52"/>
+      <c r="W171" s="52"/>
+      <c r="X171" s="1"/>
+      <c r="Y171" s="1"/>
+      <c r="AF171" s="1"/>
+      <c r="AG171" s="1"/>
+      <c r="AH171" s="1"/>
+      <c r="AI171" s="1"/>
+      <c r="AJ171" s="1"/>
+      <c r="AK171" s="1"/>
+      <c r="AL171" s="1"/>
+      <c r="AM171" s="1"/>
+    </row>
+    <row r="172" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A172" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B172" s="50"/>
+      <c r="C172" s="50"/>
+      <c r="D172" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E172" s="51"/>
+      <c r="F172" s="51"/>
+      <c r="G172" s="51"/>
+      <c r="H172" s="53">
+        <v>2</v>
+      </c>
+      <c r="I172" s="53"/>
+      <c r="J172" s="53">
+        <v>1</v>
+      </c>
+      <c r="K172" s="53"/>
+      <c r="L172" s="53">
+        <v>1</v>
+      </c>
+      <c r="M172" s="53"/>
+      <c r="N172" s="53">
+        <v>2</v>
+      </c>
+      <c r="O172" s="53"/>
+      <c r="P172" s="53">
+        <v>3</v>
+      </c>
+      <c r="Q172" s="53"/>
+      <c r="R172" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="S172" s="50"/>
+      <c r="T172" s="50"/>
+      <c r="U172" s="52">
+        <f>SUM(H172,L172,P172)-2-1-2-1</f>
+        <v>0</v>
+      </c>
+      <c r="V172" s="52"/>
+      <c r="W172" s="52"/>
+      <c r="X172" s="1"/>
+      <c r="Y172" s="1"/>
+      <c r="AF172" s="1"/>
+      <c r="AG172" s="1"/>
+      <c r="AH172" s="1"/>
+      <c r="AI172" s="1"/>
+      <c r="AJ172" s="1"/>
+      <c r="AK172" s="1"/>
+      <c r="AL172" s="1"/>
+      <c r="AM172" s="1"/>
+    </row>
+    <row r="173" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A173" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="8"/>
-      <c r="S90" s="8"/>
-      <c r="T90" s="8"/>
-      <c r="U90" s="8"/>
-      <c r="V90" s="8"/>
-      <c r="W90" s="8"/>
-      <c r="X90" s="8"/>
-      <c r="Y90" s="8"/>
-      <c r="Z90" s="8"/>
-      <c r="AA90" s="8"/>
-      <c r="AB90" s="8"/>
-      <c r="AC90" s="8"/>
-      <c r="AD90" s="8"/>
-      <c r="AE90" s="8"/>
-      <c r="AF90" s="8"/>
-      <c r="AG90" s="8"/>
-      <c r="AH90" s="8"/>
-      <c r="AI90" s="8"/>
-      <c r="AJ90" s="8"/>
-      <c r="AK90" s="8"/>
-      <c r="AL90" s="8"/>
-      <c r="AM90" s="8"/>
-    </row>
-    <row r="91" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="9" t="s">
+      <c r="B173" s="50"/>
+      <c r="C173" s="50"/>
+      <c r="D173" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E173" s="51"/>
+      <c r="F173" s="51"/>
+      <c r="G173" s="51"/>
+      <c r="H173" s="53">
+        <v>3</v>
+      </c>
+      <c r="I173" s="53"/>
+      <c r="J173" s="53">
+        <v>2</v>
+      </c>
+      <c r="K173" s="53"/>
+      <c r="L173" s="53">
+        <v>4</v>
+      </c>
+      <c r="M173" s="53"/>
+      <c r="N173" s="53">
+        <v>5</v>
+      </c>
+      <c r="O173" s="53"/>
+      <c r="P173" s="53">
+        <v>4</v>
+      </c>
+      <c r="Q173" s="53"/>
+      <c r="R173" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S173" s="50"/>
+      <c r="T173" s="50"/>
+      <c r="U173" s="52">
+        <f>SUM(H173,L173,P173)-1-1-1-4</f>
+        <v>4</v>
+      </c>
+      <c r="V173" s="52"/>
+      <c r="W173" s="52"/>
+      <c r="X173" s="1"/>
+      <c r="Y173" s="1"/>
+      <c r="AF173" s="1"/>
+      <c r="AG173" s="1"/>
+      <c r="AH173" s="1"/>
+      <c r="AI173" s="1"/>
+      <c r="AJ173" s="1"/>
+      <c r="AK173" s="1"/>
+      <c r="AL173" s="1"/>
+      <c r="AM173" s="1"/>
+    </row>
+    <row r="174" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A174" s="50"/>
+      <c r="B174" s="50"/>
+      <c r="C174" s="50"/>
+      <c r="D174" s="51"/>
+      <c r="E174" s="51"/>
+      <c r="F174" s="51"/>
+      <c r="G174" s="51"/>
+      <c r="H174" s="50"/>
+      <c r="I174" s="50"/>
+      <c r="J174" s="50"/>
+      <c r="K174" s="50"/>
+      <c r="L174" s="50"/>
+      <c r="M174" s="50"/>
+      <c r="N174" s="50"/>
+      <c r="O174" s="50"/>
+      <c r="P174" s="50"/>
+      <c r="Q174" s="50"/>
+      <c r="R174" s="50"/>
+      <c r="S174" s="50"/>
+      <c r="T174" s="50"/>
+      <c r="U174" s="52">
+        <f>SUM(H174,L174)</f>
+        <v>0</v>
+      </c>
+      <c r="V174" s="52"/>
+      <c r="W174" s="52"/>
+      <c r="X174" s="1"/>
+      <c r="Y174" s="1"/>
+      <c r="AF174" s="1"/>
+      <c r="AG174" s="1"/>
+      <c r="AH174" s="1"/>
+      <c r="AI174" s="1"/>
+      <c r="AJ174" s="1"/>
+      <c r="AK174" s="1"/>
+      <c r="AL174" s="1"/>
+      <c r="AM174" s="1"/>
+    </row>
+    <row r="175" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A175" s="50"/>
+      <c r="B175" s="50"/>
+      <c r="C175" s="50"/>
+      <c r="D175" s="51"/>
+      <c r="E175" s="51"/>
+      <c r="F175" s="51"/>
+      <c r="G175" s="51"/>
+      <c r="H175" s="50"/>
+      <c r="I175" s="50"/>
+      <c r="J175" s="50"/>
+      <c r="K175" s="50"/>
+      <c r="L175" s="50"/>
+      <c r="M175" s="50"/>
+      <c r="N175" s="50"/>
+      <c r="O175" s="50"/>
+      <c r="P175" s="50"/>
+      <c r="Q175" s="50"/>
+      <c r="R175" s="50"/>
+      <c r="S175" s="50"/>
+      <c r="T175" s="50"/>
+      <c r="U175" s="52">
+        <f>SUM(H175,L175)</f>
+        <v>0</v>
+      </c>
+      <c r="V175" s="52"/>
+      <c r="W175" s="52"/>
+      <c r="X175" s="1"/>
+      <c r="Y175" s="1"/>
+      <c r="AF175" s="1"/>
+      <c r="AG175" s="1"/>
+      <c r="AH175" s="1"/>
+      <c r="AI175" s="1"/>
+      <c r="AJ175" s="1"/>
+      <c r="AK175" s="1"/>
+      <c r="AL175" s="1"/>
+      <c r="AM175" s="1"/>
+    </row>
+    <row r="176" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A176" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C176" s="48"/>
+      <c r="D176" s="48"/>
+      <c r="E176" s="48"/>
+      <c r="F176" s="48"/>
+      <c r="G176" s="48"/>
+      <c r="H176" s="48"/>
+      <c r="I176" s="48"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1"/>
+      <c r="U176" s="1"/>
+      <c r="V176" s="1"/>
+      <c r="W176" s="1"/>
+      <c r="X176" s="1"/>
+      <c r="Y176" s="1"/>
+      <c r="Z176" s="1"/>
+      <c r="AA176" s="1"/>
+      <c r="AB176" s="1"/>
+      <c r="AC176" s="1"/>
+      <c r="AD176" s="1"/>
+      <c r="AE176" s="1"/>
+      <c r="AF176" s="1"/>
+      <c r="AG176" s="1"/>
+      <c r="AH176" s="1"/>
+      <c r="AI176" s="1"/>
+      <c r="AJ176" s="1"/>
+      <c r="AK176" s="1"/>
+      <c r="AL176" s="1"/>
+      <c r="AM176" s="1"/>
+    </row>
+    <row r="177" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A177" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C177" s="48"/>
+      <c r="D177" s="48"/>
+      <c r="E177" s="48"/>
+      <c r="F177" s="48"/>
+      <c r="G177" s="48"/>
+      <c r="H177" s="48"/>
+      <c r="I177" s="48"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+      <c r="T177" s="1"/>
+      <c r="U177" s="1"/>
+      <c r="V177" s="1"/>
+      <c r="W177" s="1"/>
+      <c r="X177" s="1"/>
+      <c r="Y177" s="1"/>
+      <c r="Z177" s="1"/>
+      <c r="AA177" s="1"/>
+      <c r="AB177" s="1"/>
+      <c r="AC177" s="1"/>
+      <c r="AD177" s="1"/>
+      <c r="AE177" s="1"/>
+      <c r="AF177" s="1"/>
+      <c r="AG177" s="1"/>
+      <c r="AH177" s="1"/>
+      <c r="AI177" s="1"/>
+      <c r="AJ177" s="1"/>
+      <c r="AK177" s="1"/>
+      <c r="AL177" s="1"/>
+      <c r="AM177" s="1"/>
+    </row>
+    <row r="178" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E178" s="49"/>
+      <c r="F178" s="49"/>
+      <c r="G178" s="49"/>
+      <c r="H178" s="49"/>
+      <c r="I178" s="49"/>
+      <c r="J178" s="49"/>
+      <c r="K178" s="49"/>
+      <c r="L178" s="49"/>
+      <c r="M178" s="49"/>
+      <c r="N178" s="49"/>
+      <c r="O178" s="49"/>
+      <c r="P178" s="49"/>
+      <c r="Q178" s="49"/>
+      <c r="R178" s="49"/>
+      <c r="S178" s="49"/>
+      <c r="T178" s="49"/>
+      <c r="U178" s="49"/>
+      <c r="V178" s="49"/>
+      <c r="W178" s="49"/>
+      <c r="X178" s="49"/>
+      <c r="Y178" s="49"/>
+      <c r="Z178" s="49"/>
+      <c r="AA178" s="49"/>
+      <c r="AB178" s="49"/>
+      <c r="AC178" s="49"/>
+      <c r="AD178" s="49"/>
+      <c r="AE178" s="49"/>
+      <c r="AF178" s="49"/>
+      <c r="AG178" s="49"/>
+      <c r="AH178" s="49"/>
+      <c r="AI178" s="49"/>
+      <c r="AJ178" s="49"/>
+      <c r="AK178" s="49"/>
+      <c r="AL178" s="49"/>
+      <c r="AM178" s="49"/>
+    </row>
+    <row r="179" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A179" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="30">
+        <v>1</v>
+      </c>
+      <c r="C179" s="30">
+        <v>2</v>
+      </c>
+      <c r="D179" s="30">
+        <v>3</v>
+      </c>
+      <c r="E179" s="30">
+        <v>4</v>
+      </c>
+      <c r="F179" s="31">
+        <v>5</v>
+      </c>
+      <c r="G179" s="31">
+        <v>6</v>
+      </c>
+      <c r="H179" s="31">
+        <v>7</v>
+      </c>
+      <c r="I179" s="31">
+        <v>8</v>
+      </c>
+      <c r="J179" s="31">
+        <v>9</v>
+      </c>
+      <c r="K179" s="31">
+        <v>10</v>
+      </c>
+      <c r="L179" s="31">
+        <v>11</v>
+      </c>
+      <c r="M179" s="31">
+        <v>12</v>
+      </c>
+      <c r="N179" s="31">
+        <v>13</v>
+      </c>
+      <c r="O179" s="31">
+        <v>14</v>
+      </c>
+      <c r="P179" s="31">
+        <v>15</v>
+      </c>
+      <c r="Q179" s="31">
+        <v>16</v>
+      </c>
+      <c r="R179" s="31">
+        <v>17</v>
+      </c>
+      <c r="S179" s="31">
+        <v>18</v>
+      </c>
+      <c r="T179" s="31">
+        <v>19</v>
+      </c>
+      <c r="U179" s="31">
+        <v>20</v>
+      </c>
+      <c r="V179" s="31">
+        <v>21</v>
+      </c>
+      <c r="W179" s="31">
+        <v>22</v>
+      </c>
+      <c r="X179" s="31">
+        <v>23</v>
+      </c>
+      <c r="Y179" s="31">
+        <v>24</v>
+      </c>
+      <c r="Z179" s="31">
+        <v>25</v>
+      </c>
+      <c r="AA179" s="31">
+        <v>26</v>
+      </c>
+      <c r="AB179" s="31">
+        <v>27</v>
+      </c>
+      <c r="AC179" s="31">
+        <v>28</v>
+      </c>
+      <c r="AD179" s="31">
+        <v>29</v>
+      </c>
+      <c r="AE179" s="31">
+        <v>30</v>
+      </c>
+      <c r="AF179" s="31">
+        <v>31</v>
+      </c>
+      <c r="AG179" s="31">
+        <v>32</v>
+      </c>
+      <c r="AH179" s="31">
         <v>33</v>
       </c>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9" t="s">
+      <c r="AI179" s="31">
+        <v>34</v>
+      </c>
+      <c r="AJ179" s="31">
+        <v>35</v>
+      </c>
+      <c r="AK179" s="31">
+        <v>36</v>
+      </c>
+      <c r="AL179" s="31">
+        <v>37</v>
+      </c>
+      <c r="AM179" s="28">
+        <v>38</v>
+      </c>
+      <c r="AN179" s="28">
+        <v>39</v>
+      </c>
+      <c r="AO179" s="31">
+        <v>40</v>
+      </c>
+      <c r="AP179" s="31">
+        <v>41</v>
+      </c>
+      <c r="AQ179" s="31">
+        <v>42</v>
+      </c>
+      <c r="AR179" s="31">
+        <v>43</v>
+      </c>
+      <c r="AS179" s="28">
+        <v>44</v>
+      </c>
+      <c r="AT179" s="28">
+        <v>45</v>
+      </c>
+      <c r="AU179" s="28">
+        <v>46</v>
+      </c>
+      <c r="AV179" s="28">
+        <v>47</v>
+      </c>
+      <c r="AW179" s="28">
+        <v>48</v>
+      </c>
+      <c r="AX179" s="31">
+        <v>49</v>
+      </c>
+      <c r="AY179" s="31">
+        <v>50</v>
+      </c>
+      <c r="AZ179" s="31">
+        <v>51</v>
+      </c>
+      <c r="BA179" s="31">
+        <v>52</v>
+      </c>
+      <c r="BB179" s="31">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="180" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A180" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="10"/>
-      <c r="O91" s="10"/>
-      <c r="P91" s="10"/>
-      <c r="Q91" s="10"/>
-      <c r="R91" s="10"/>
-      <c r="S91" s="10"/>
-      <c r="T91" s="10"/>
-      <c r="U91" s="10"/>
-      <c r="V91" s="10"/>
-      <c r="W91" s="10"/>
-      <c r="X91" s="10"/>
-      <c r="Y91" s="10"/>
-      <c r="Z91" s="10"/>
-      <c r="AA91" s="10"/>
-      <c r="AB91" s="10"/>
-      <c r="AC91" s="10"/>
-      <c r="AD91" s="10"/>
-      <c r="AE91" s="10"/>
-      <c r="AF91" s="10"/>
-      <c r="AG91" s="10"/>
-      <c r="AH91" s="10"/>
-      <c r="AI91" s="10"/>
-      <c r="AJ91" s="10"/>
-      <c r="AK91" s="10"/>
-      <c r="AL91" s="10"/>
-      <c r="AM91" s="10"/>
+      <c r="B180" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C180" s="29"/>
+      <c r="D180" s="29"/>
+      <c r="E180" s="29"/>
+      <c r="F180" s="31"/>
+      <c r="G180" s="31"/>
+      <c r="H180" s="31"/>
+      <c r="I180" s="31"/>
+      <c r="J180" s="31"/>
+      <c r="K180" s="31"/>
+      <c r="L180" s="31"/>
+      <c r="M180" s="31"/>
+      <c r="N180" s="31"/>
+      <c r="O180" s="31"/>
+      <c r="P180" s="31"/>
+      <c r="Q180" s="31"/>
+      <c r="R180" s="31"/>
+      <c r="S180" s="31"/>
+      <c r="T180" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="U180" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="V180" s="31"/>
+      <c r="W180" s="31"/>
+      <c r="X180" s="31"/>
+      <c r="Y180" s="31"/>
+      <c r="Z180" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA180" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB180" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC180" s="31"/>
+      <c r="AD180" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE180" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF180" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG180" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH180" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI180" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ180" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK180" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL180" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM180" s="28"/>
+      <c r="AN180" s="28"/>
+      <c r="AO180" s="31"/>
+      <c r="AP180" s="31"/>
+      <c r="AQ180" s="31"/>
+      <c r="AR180" s="31"/>
+      <c r="AS180" s="28"/>
+      <c r="AT180" s="28"/>
+      <c r="AU180" s="28"/>
+      <c r="AV180" s="28"/>
+      <c r="AW180" s="28"/>
+      <c r="AX180" s="31"/>
+      <c r="AY180" s="31"/>
+      <c r="AZ180" s="31"/>
+      <c r="BA180" s="31"/>
+      <c r="BB180" s="31"/>
+    </row>
+    <row r="181" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A181" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181" s="29"/>
+      <c r="C181" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D181" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E181" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F181" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G181" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H181" s="31"/>
+      <c r="I181" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="J181" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="K181" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="L181" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M181" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N181" s="31"/>
+      <c r="O181" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="P181" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q181" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R181" s="31"/>
+      <c r="S181" s="31"/>
+      <c r="T181" s="31"/>
+      <c r="U181" s="31"/>
+      <c r="V181" s="31"/>
+      <c r="W181" s="31"/>
+      <c r="X181" s="31"/>
+      <c r="Y181" s="31"/>
+      <c r="Z181" s="31"/>
+      <c r="AA181" s="31"/>
+      <c r="AB181" s="31"/>
+      <c r="AC181" s="31"/>
+      <c r="AD181" s="31"/>
+      <c r="AE181" s="31"/>
+      <c r="AF181" s="31"/>
+      <c r="AG181" s="31"/>
+      <c r="AH181" s="31"/>
+      <c r="AI181" s="31"/>
+      <c r="AJ181" s="31"/>
+      <c r="AK181" s="31"/>
+      <c r="AL181" s="31"/>
+      <c r="AM181" s="28"/>
+      <c r="AN181" s="28"/>
+      <c r="AO181" s="31"/>
+      <c r="AP181" s="31"/>
+      <c r="AQ181" s="31"/>
+      <c r="AR181" s="31"/>
+      <c r="AS181" s="28"/>
+      <c r="AT181" s="28"/>
+      <c r="AU181" s="28"/>
+      <c r="AV181" s="28"/>
+      <c r="AW181" s="28"/>
+      <c r="AX181" s="31"/>
+      <c r="AY181" s="31"/>
+      <c r="AZ181" s="31"/>
+      <c r="BA181" s="31"/>
+      <c r="BB181" s="31"/>
+    </row>
+    <row r="182" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A182" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" s="29"/>
+      <c r="C182" s="29"/>
+      <c r="D182" s="29"/>
+      <c r="E182" s="29"/>
+      <c r="F182" s="31"/>
+      <c r="G182" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="H182" s="31"/>
+      <c r="I182" s="31"/>
+      <c r="J182" s="31"/>
+      <c r="K182" s="31"/>
+      <c r="L182" s="31"/>
+      <c r="M182" s="31"/>
+      <c r="N182" s="31"/>
+      <c r="O182" s="31"/>
+      <c r="P182" s="31"/>
+      <c r="Q182" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="R182" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="S182" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="T182" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="U182" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="V182" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="W182" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="X182" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y182" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z182" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA182" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB182" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC182" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD182" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE182" s="31"/>
+      <c r="AF182" s="31"/>
+      <c r="AG182" s="31"/>
+      <c r="AH182" s="31"/>
+      <c r="AI182" s="31"/>
+      <c r="AJ182" s="31"/>
+      <c r="AK182" s="31"/>
+      <c r="AL182" s="31"/>
+      <c r="AM182" s="28"/>
+      <c r="AN182" s="28"/>
+      <c r="AO182" s="31"/>
+      <c r="AP182" s="31"/>
+      <c r="AQ182" s="31"/>
+      <c r="AR182" s="31"/>
+      <c r="AS182" s="28"/>
+      <c r="AT182" s="28"/>
+      <c r="AU182" s="28"/>
+      <c r="AV182" s="28"/>
+      <c r="AW182" s="28"/>
+      <c r="AX182" s="31"/>
+      <c r="AY182" s="31"/>
+      <c r="AZ182" s="31"/>
+      <c r="BA182" s="31"/>
+      <c r="BB182" s="31"/>
+    </row>
+    <row r="183" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A183" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B183" s="29"/>
+      <c r="C183" s="29"/>
+      <c r="D183" s="29"/>
+      <c r="E183" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F183" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G183" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H183" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="I183" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J183" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K183" s="31"/>
+      <c r="L183" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="M183" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="N183" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="O183" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P183" s="31"/>
+      <c r="Q183" s="31"/>
+      <c r="R183" s="31"/>
+      <c r="S183" s="31"/>
+      <c r="T183" s="31"/>
+      <c r="U183" s="31"/>
+      <c r="V183" s="31"/>
+      <c r="W183" s="31"/>
+      <c r="X183" s="31"/>
+      <c r="Y183" s="31"/>
+      <c r="Z183" s="31"/>
+      <c r="AA183" s="31"/>
+      <c r="AB183" s="31"/>
+      <c r="AC183" s="31"/>
+      <c r="AD183" s="31"/>
+      <c r="AE183" s="31"/>
+      <c r="AF183" s="31"/>
+      <c r="AG183" s="31"/>
+      <c r="AH183" s="31"/>
+      <c r="AI183" s="31"/>
+      <c r="AJ183" s="31"/>
+      <c r="AK183" s="31"/>
+      <c r="AL183" s="31"/>
+      <c r="AM183" s="28"/>
+      <c r="AN183" s="28"/>
+      <c r="AO183" s="31"/>
+      <c r="AP183" s="31"/>
+      <c r="AQ183" s="31"/>
+      <c r="AR183" s="31"/>
+      <c r="AS183" s="28"/>
+      <c r="AT183" s="28"/>
+      <c r="AU183" s="28"/>
+      <c r="AV183" s="28"/>
+      <c r="AW183" s="28"/>
+      <c r="AX183" s="31"/>
+      <c r="AY183" s="31"/>
+      <c r="AZ183" s="31"/>
+      <c r="BA183" s="31"/>
+      <c r="BB183" s="31"/>
+    </row>
+    <row r="184" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A184" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B184" s="31"/>
+      <c r="C184" s="31"/>
+      <c r="D184" s="31"/>
+      <c r="E184" s="31"/>
+      <c r="F184" s="31"/>
+      <c r="G184" s="31"/>
+      <c r="H184" s="31"/>
+      <c r="I184" s="31"/>
+      <c r="J184" s="31"/>
+      <c r="K184" s="31"/>
+      <c r="L184" s="31"/>
+      <c r="M184" s="31"/>
+      <c r="N184" s="31"/>
+      <c r="O184" s="31"/>
+      <c r="P184" s="31"/>
+      <c r="Q184" s="31"/>
+      <c r="R184" s="31"/>
+      <c r="S184" s="31"/>
+      <c r="T184" s="31"/>
+      <c r="U184" s="31"/>
+      <c r="V184" s="31"/>
+      <c r="W184" s="31"/>
+      <c r="X184" s="31"/>
+      <c r="Y184" s="31"/>
+      <c r="Z184" s="31"/>
+      <c r="AA184" s="31"/>
+      <c r="AB184" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC184" s="31"/>
+      <c r="AD184" s="31"/>
+      <c r="AE184" s="31"/>
+      <c r="AF184" s="31"/>
+      <c r="AG184" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH184" s="31"/>
+      <c r="AI184" s="31"/>
+      <c r="AJ184" s="31"/>
+      <c r="AK184" s="31"/>
+      <c r="AL184" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM184" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN184" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO184" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP184" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ184" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR184" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS184" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT184" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU184" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV184" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW184" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX184" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY184" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ184" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA184" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB184" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A185" s="46"/>
+      <c r="B185" s="31"/>
+      <c r="C185" s="31"/>
+      <c r="D185" s="31"/>
+      <c r="E185" s="31"/>
+      <c r="F185" s="31"/>
+      <c r="G185" s="31"/>
+      <c r="H185" s="31"/>
+      <c r="I185" s="31"/>
+      <c r="J185" s="31"/>
+      <c r="K185" s="31"/>
+      <c r="L185" s="31"/>
+      <c r="M185" s="31"/>
+      <c r="N185" s="31"/>
+      <c r="O185" s="31"/>
+      <c r="P185" s="31"/>
+      <c r="Q185" s="31"/>
+      <c r="R185" s="31"/>
+      <c r="S185" s="31"/>
+      <c r="T185" s="31"/>
+      <c r="U185" s="31"/>
+      <c r="V185" s="31"/>
+      <c r="W185" s="31"/>
+      <c r="X185" s="31"/>
+      <c r="Y185" s="31"/>
+      <c r="Z185" s="31"/>
+      <c r="AA185" s="31"/>
+      <c r="AB185" s="31"/>
+      <c r="AC185" s="31"/>
+      <c r="AD185" s="31"/>
+      <c r="AE185" s="31"/>
+      <c r="AF185" s="31"/>
+      <c r="AG185" s="31"/>
+      <c r="AH185" s="31"/>
+      <c r="AI185" s="31"/>
+      <c r="AJ185" s="31"/>
+      <c r="AK185" s="31"/>
+      <c r="AL185" s="31"/>
+      <c r="AM185" s="28"/>
+      <c r="AN185" s="28"/>
+      <c r="AO185" s="31"/>
+      <c r="AP185" s="31"/>
+      <c r="AQ185" s="31"/>
+      <c r="AR185" s="31"/>
+      <c r="AS185" s="28"/>
+      <c r="AT185" s="28"/>
+      <c r="AU185" s="28"/>
+      <c r="AV185" s="28"/>
+      <c r="AW185" s="28"/>
+      <c r="AX185" s="31"/>
+      <c r="AY185" s="31"/>
+      <c r="AZ185" s="31"/>
+      <c r="BA185" s="31"/>
+      <c r="BB185" s="31"/>
+    </row>
+    <row r="186" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A186" s="46"/>
+      <c r="B186" s="31"/>
+      <c r="C186" s="31"/>
+      <c r="D186" s="31"/>
+      <c r="E186" s="31"/>
+      <c r="F186" s="31"/>
+      <c r="G186" s="31"/>
+      <c r="H186" s="31"/>
+      <c r="I186" s="31"/>
+      <c r="J186" s="31"/>
+      <c r="K186" s="31"/>
+      <c r="L186" s="31"/>
+      <c r="M186" s="31"/>
+      <c r="N186" s="31"/>
+      <c r="O186" s="31"/>
+      <c r="P186" s="31"/>
+      <c r="Q186" s="31"/>
+      <c r="R186" s="31"/>
+      <c r="S186" s="31"/>
+      <c r="T186" s="31"/>
+      <c r="U186" s="31"/>
+      <c r="V186" s="31"/>
+      <c r="W186" s="31"/>
+      <c r="X186" s="31"/>
+      <c r="Y186" s="31"/>
+      <c r="Z186" s="31"/>
+      <c r="AA186" s="31"/>
+      <c r="AB186" s="31"/>
+      <c r="AC186" s="31"/>
+      <c r="AD186" s="31"/>
+      <c r="AE186" s="31"/>
+      <c r="AF186" s="31"/>
+      <c r="AG186" s="31"/>
+      <c r="AH186" s="31"/>
+      <c r="AI186" s="31"/>
+      <c r="AJ186" s="31"/>
+      <c r="AK186" s="31"/>
+      <c r="AL186" s="31"/>
+      <c r="AM186" s="28"/>
+      <c r="AN186" s="28"/>
+      <c r="AO186" s="31"/>
+      <c r="AP186" s="31"/>
+      <c r="AQ186" s="31"/>
+      <c r="AR186" s="31"/>
+      <c r="AS186" s="28"/>
+      <c r="AT186" s="28"/>
+      <c r="AU186" s="28"/>
+      <c r="AV186" s="28"/>
+      <c r="AW186" s="28"/>
+      <c r="AX186" s="31"/>
+      <c r="AY186" s="31"/>
+      <c r="AZ186" s="31"/>
+      <c r="BA186" s="31"/>
+      <c r="BB186" s="31"/>
+    </row>
+    <row r="187" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A187" s="11"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="12"/>
+      <c r="L187" s="12"/>
+      <c r="M187" s="12"/>
+      <c r="N187" s="13"/>
+      <c r="O187" s="13"/>
+      <c r="P187" s="13"/>
+      <c r="Q187" s="13"/>
+      <c r="R187" s="13"/>
+      <c r="S187" s="13"/>
+      <c r="T187" s="13"/>
+      <c r="U187" s="13"/>
+      <c r="V187" s="13"/>
+      <c r="W187" s="13"/>
+      <c r="X187" s="13"/>
+      <c r="Y187" s="13"/>
+      <c r="Z187" s="13"/>
+      <c r="AA187" s="13"/>
+      <c r="AB187" s="13"/>
+      <c r="AC187" s="13"/>
+      <c r="AD187" s="13"/>
+      <c r="AE187" s="13"/>
+      <c r="AF187" s="13"/>
+      <c r="AG187" s="13"/>
+      <c r="AH187" s="13"/>
+      <c r="AI187" s="13"/>
+      <c r="AJ187" s="13"/>
+      <c r="AK187" s="13"/>
+      <c r="AL187" s="13"/>
+      <c r="AM187" s="13"/>
+    </row>
+    <row r="188" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A188" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D188" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G188" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H188" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I188" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J188" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K188" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L188" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M188" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="N188" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O188" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="P188" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q188" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R188" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S188" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="T188" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="U188" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V188" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W188" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X188" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y188" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z188" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA188" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB188" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC188" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD188" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE188" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF188" s="7"/>
+      <c r="AG188" s="7"/>
+      <c r="AH188" s="7"/>
+      <c r="AI188" s="8"/>
+      <c r="AJ188" s="8"/>
+      <c r="AK188" s="8"/>
+      <c r="AL188" s="8"/>
+      <c r="AM188" s="8"/>
+    </row>
+    <row r="189" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A189" s="6"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D189" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E189" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H189" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I189" s="9"/>
+      <c r="J189" s="9"/>
+      <c r="K189" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L189" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M189" s="9"/>
+      <c r="N189" s="9"/>
+      <c r="O189" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P189" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q189" s="9"/>
+      <c r="R189" s="9"/>
+      <c r="S189" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="T189" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="U189" s="9"/>
+      <c r="V189" s="9"/>
+      <c r="W189" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="X189" s="9"/>
+      <c r="Y189" s="9"/>
+      <c r="Z189" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA189" s="9"/>
+      <c r="AB189" s="9"/>
+      <c r="AC189" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD189" s="9"/>
+      <c r="AE189" s="9"/>
+      <c r="AF189" s="9"/>
+      <c r="AG189" s="9"/>
+      <c r="AH189" s="9"/>
+      <c r="AI189" s="10"/>
+      <c r="AJ189" s="10"/>
+      <c r="AK189" s="10"/>
+      <c r="AL189" s="10"/>
+      <c r="AM189" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="228">
+  <mergeCells count="440">
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="U7:W7"/>
     <mergeCell ref="N43:O43"/>
     <mergeCell ref="P43:Q43"/>
     <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:W43"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B45:I45"/>
     <mergeCell ref="B46:I46"/>
     <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:W40"/>
     <mergeCell ref="N41:O41"/>
     <mergeCell ref="P41:Q41"/>
     <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:W41"/>
     <mergeCell ref="N42:O42"/>
     <mergeCell ref="P42:Q42"/>
     <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:W42"/>
     <mergeCell ref="R37:T37"/>
-    <mergeCell ref="U37:W37"/>
     <mergeCell ref="N38:O38"/>
     <mergeCell ref="P38:Q38"/>
     <mergeCell ref="R38:T38"/>
-    <mergeCell ref="U38:W38"/>
     <mergeCell ref="N39:O39"/>
     <mergeCell ref="P39:Q39"/>
     <mergeCell ref="R39:T39"/>
-    <mergeCell ref="U39:W39"/>
     <mergeCell ref="H2:Q2"/>
     <mergeCell ref="H35:Q35"/>
     <mergeCell ref="R35:T36"/>
-    <mergeCell ref="U35:W36"/>
     <mergeCell ref="N36:O36"/>
     <mergeCell ref="P36:Q36"/>
     <mergeCell ref="N3:O3"/>
@@ -5564,10 +10270,6 @@
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="U7:W7"/>
     <mergeCell ref="D47:AM47"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="D2:G3"/>
@@ -5631,6 +10333,8 @@
     <mergeCell ref="U10:W10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="U5:W5"/>
     <mergeCell ref="N37:O37"/>
     <mergeCell ref="P37:Q37"/>
     <mergeCell ref="D42:G42"/>
@@ -5736,9 +10440,9 @@
     <mergeCell ref="P75:Q75"/>
     <mergeCell ref="R75:T75"/>
     <mergeCell ref="U75:W75"/>
+    <mergeCell ref="B77:I77"/>
     <mergeCell ref="B78:I78"/>
-    <mergeCell ref="B79:I79"/>
-    <mergeCell ref="D80:AM80"/>
+    <mergeCell ref="D79:AM79"/>
     <mergeCell ref="A76:C76"/>
     <mergeCell ref="D76:G76"/>
     <mergeCell ref="H76:I76"/>
@@ -5748,6 +10452,226 @@
     <mergeCell ref="P76:Q76"/>
     <mergeCell ref="R76:T76"/>
     <mergeCell ref="U76:W76"/>
+    <mergeCell ref="A101:C102"/>
+    <mergeCell ref="D101:G102"/>
+    <mergeCell ref="H101:Q101"/>
+    <mergeCell ref="R101:T102"/>
+    <mergeCell ref="U101:W102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="R103:T103"/>
+    <mergeCell ref="U103:W103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="R104:T104"/>
+    <mergeCell ref="U104:W104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="R105:T105"/>
+    <mergeCell ref="U105:W105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="R106:T106"/>
+    <mergeCell ref="U106:W106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="R107:T107"/>
+    <mergeCell ref="U107:W107"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="R108:T108"/>
+    <mergeCell ref="U108:W108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="D109:G109"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="R109:T109"/>
+    <mergeCell ref="U109:W109"/>
+    <mergeCell ref="B111:I111"/>
+    <mergeCell ref="B112:I112"/>
+    <mergeCell ref="D113:AM113"/>
+    <mergeCell ref="A134:C135"/>
+    <mergeCell ref="D134:G135"/>
+    <mergeCell ref="H134:Q134"/>
+    <mergeCell ref="R134:T135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="D136:G136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="R136:T136"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="D137:G137"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="J137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="R137:T137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="D138:G138"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="J138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="R138:T138"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="D139:G139"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="J139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="R139:T139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="D140:G140"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="J140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="R140:T140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="D141:G141"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="R141:T141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:G142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="J142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="R142:T142"/>
+    <mergeCell ref="B143:I143"/>
+    <mergeCell ref="B144:I144"/>
+    <mergeCell ref="D145:AM145"/>
+    <mergeCell ref="A167:C168"/>
+    <mergeCell ref="D167:G168"/>
+    <mergeCell ref="H167:Q167"/>
+    <mergeCell ref="R167:T168"/>
+    <mergeCell ref="U167:W168"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="J168:K168"/>
+    <mergeCell ref="L168:M168"/>
+    <mergeCell ref="N168:O168"/>
+    <mergeCell ref="P168:Q168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="D169:G169"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="J169:K169"/>
+    <mergeCell ref="L169:M169"/>
+    <mergeCell ref="N169:O169"/>
+    <mergeCell ref="P169:Q169"/>
+    <mergeCell ref="R169:T169"/>
+    <mergeCell ref="U169:W169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="D170:G170"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="J170:K170"/>
+    <mergeCell ref="L170:M170"/>
+    <mergeCell ref="N170:O170"/>
+    <mergeCell ref="P170:Q170"/>
+    <mergeCell ref="R170:T170"/>
+    <mergeCell ref="U170:W170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="D171:G171"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="J171:K171"/>
+    <mergeCell ref="L171:M171"/>
+    <mergeCell ref="N171:O171"/>
+    <mergeCell ref="P171:Q171"/>
+    <mergeCell ref="R171:T171"/>
+    <mergeCell ref="U171:W171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="D172:G172"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="J172:K172"/>
+    <mergeCell ref="L172:M172"/>
+    <mergeCell ref="N172:O172"/>
+    <mergeCell ref="P172:Q172"/>
+    <mergeCell ref="R172:T172"/>
+    <mergeCell ref="U172:W172"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="D173:G173"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="L173:M173"/>
+    <mergeCell ref="N173:O173"/>
+    <mergeCell ref="P173:Q173"/>
+    <mergeCell ref="R173:T173"/>
+    <mergeCell ref="U173:W173"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="D174:G174"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="L174:M174"/>
+    <mergeCell ref="N174:O174"/>
+    <mergeCell ref="P174:Q174"/>
+    <mergeCell ref="R174:T174"/>
+    <mergeCell ref="U174:W174"/>
+    <mergeCell ref="B176:I176"/>
+    <mergeCell ref="B177:I177"/>
+    <mergeCell ref="D178:AM178"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="D175:G175"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="L175:M175"/>
+    <mergeCell ref="N175:O175"/>
+    <mergeCell ref="P175:Q175"/>
+    <mergeCell ref="R175:T175"/>
+    <mergeCell ref="U175:W175"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
